--- a/Sets-GEO.xlsx
+++ b/Sets-GEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veda\Veda_models\Chiodi\TIMES-GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E6B68E-6F41-4E2A-9CE8-8ED2A9412CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0786FE8-846A-4C8F-9717-C6F8DE5971B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4215" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="8" r:id="rId1"/>
@@ -673,9 +673,6 @@
     <t>*SOL</t>
   </si>
   <si>
-    <t>*WIN</t>
-  </si>
-  <si>
     <t>*GEO</t>
   </si>
   <si>
@@ -2096,6 +2093,9 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>*WON,*WOF</t>
   </si>
 </sst>
 </file>
@@ -2103,10 +2103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="???,???.00"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="???,???.00"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -2688,12 +2688,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -2706,12 +2706,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2936,7 +2936,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="25" applyAlignment="1">
@@ -3604,62 +3604,62 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="28.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="4" width="28.265625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="78" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
       <c r="D1" s="80"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A2" s="55"/>
       <c r="B2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A3" s="55"/>
       <c r="B3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A4" s="55"/>
       <c r="B4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A5" s="55"/>
       <c r="B5" s="8"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A6" s="55"/>
       <c r="B6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A7" s="55"/>
       <c r="B7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A8" s="55"/>
       <c r="B8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>92</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="C9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
@@ -3678,32 +3678,32 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="69" t="s">
+        <v>659</v>
+      </c>
+      <c r="B11" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>661</v>
-      </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="71"/>
       <c r="B12" s="70" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B14" s="73">
         <v>1</v>
@@ -3711,45 +3711,45 @@
       <c r="C14" s="70"/>
       <c r="D14" s="74"/>
     </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
+        <v>663</v>
+      </c>
+      <c r="B15" s="75" t="s">
         <v>664</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>665</v>
       </c>
       <c r="C15" s="70"/>
       <c r="D15" s="74"/>
     </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
+        <v>665</v>
+      </c>
+      <c r="B16" s="81" t="s">
         <v>666</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>667</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="74"/>
       <c r="B17" s="76" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C17" s="77"/>
       <c r="D17" s="77"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>96</v>
       </c>
@@ -3760,102 +3760,102 @@
       <c r="D20" s="16"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="83"/>
       <c r="D21" s="84"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="83"/>
       <c r="D22" s="84"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="83"/>
       <c r="D23" s="84"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="83"/>
       <c r="D24" s="84"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="83"/>
       <c r="D25" s="84"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="83"/>
       <c r="D26" s="84"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="82" t="s">
         <v>237</v>
-      </c>
-      <c r="B27" s="82" t="s">
-        <v>238</v>
       </c>
       <c r="C27" s="83"/>
       <c r="D27" s="84"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A30" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="54"/>
       <c r="B31" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="52"/>
@@ -3895,27 +3895,27 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="33.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="23" t="s">
         <v>72</v>
       </c>
@@ -3961,136 +3961,136 @@
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="5"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="5"/>
     </row>
   </sheetData>
@@ -4109,28 +4109,28 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="17.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4168,46 +4168,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>121</v>
       </c>
@@ -4215,139 +4215,139 @@
         <v>122</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="E9" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="H9" s="6" t="s">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="G10" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>220</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>221</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>267</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>268</v>
       </c>
       <c r="D15" s="63" t="s">
         <v>132</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>563</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>564</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>132</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -4371,28 +4371,28 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="17.59765625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.1328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.265625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="26" t="s">
         <v>30</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
         <v>124</v>
       </c>
@@ -4457,16 +4457,16 @@
         <v>9</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="28" t="s">
         <v>125</v>
       </c>
@@ -4477,36 +4477,36 @@
         <v>36</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="28" t="s">
         <v>275</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>276</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="29" t="s">
         <v>126</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>131</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30" t="s">
@@ -4525,10 +4525,10 @@
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="28" t="s">
         <v>17</v>
       </c>
@@ -4539,36 +4539,36 @@
         <v>19</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
         <v>20</v>
       </c>
@@ -4579,36 +4579,36 @@
         <v>19</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="28" t="s">
         <v>22</v>
       </c>
@@ -4619,13 +4619,13 @@
         <v>19</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="28" t="s">
         <v>26</v>
       </c>
@@ -4639,10 +4639,10 @@
         <v>28</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="28" t="s">
         <v>154</v>
       </c>
@@ -4656,10 +4656,10 @@
         <v>12</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="31" t="s">
         <v>157</v>
       </c>
@@ -4676,10 +4676,10 @@
         <v>12</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="31" t="s">
         <v>160</v>
       </c>
@@ -4696,10 +4696,10 @@
         <v>12</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
@@ -4713,10 +4713,10 @@
         <v>10</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="32" t="s">
         <v>164</v>
       </c>
@@ -4733,10 +4733,10 @@
         <v>10</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="32" t="s">
         <v>165</v>
       </c>
@@ -4753,12 +4753,12 @@
         <v>10</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>13</v>
@@ -4767,15 +4767,15 @@
         <v>19</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>14</v>
@@ -4787,15 +4787,15 @@
         <v>170</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>15</v>
@@ -4807,30 +4807,30 @@
         <v>16</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>468</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>469</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" s="28" t="s">
         <v>24</v>
       </c>
@@ -4841,95 +4841,95 @@
         <v>19</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>619</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>620</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>472</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>473</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>621</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>622</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G29" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="C30" s="12" t="s">
         <v>475</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>476</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>171</v>
@@ -4938,13 +4938,13 @@
         <v>19</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="29" t="s">
         <v>33</v>
       </c>
@@ -4961,12 +4961,12 @@
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="30" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>29</v>
@@ -4975,198 +4975,198 @@
         <v>19</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34" t="s">
         <v>128</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B37" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>508</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B39" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="28" t="s">
+      <c r="D39" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B40" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
+      <c r="D40" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B41" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="28" t="s">
+      <c r="D41" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B42" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>514</v>
-      </c>
       <c r="D42" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>527</v>
-      </c>
       <c r="I43" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" s="29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -5175,15 +5175,15 @@
       </c>
       <c r="H44" s="30"/>
       <c r="I44" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
         <v>0</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
@@ -5221,78 +5221,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B50" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B51" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B52" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>131</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="30" t="s">
@@ -5300,461 +5300,461 @@
       </c>
       <c r="H53" s="30"/>
       <c r="I53" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B54" s="28" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
-        <v>291</v>
-      </c>
       <c r="C54" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B55" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>626</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B56" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B57" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>627</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B58" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B59" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B60" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B61" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B62" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B63" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B64" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66" s="31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B67" s="31" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68" s="31" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B69" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B70" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B72" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B73" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B75" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B76" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D76" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="30" t="s">
@@ -5762,21 +5762,21 @@
       </c>
       <c r="H76" s="30"/>
       <c r="I76" s="30" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D77" s="34" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34" t="s">
@@ -5786,221 +5786,221 @@
         <v>11</v>
       </c>
       <c r="I77" s="34" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B78" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B79" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B80" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B81" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="D80" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>553</v>
-      </c>
       <c r="D81" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B82" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B83" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="I82" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="28" t="s">
+      <c r="D83" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B84" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="28" t="s">
+      <c r="D84" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B85" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="28" t="s">
+      <c r="D85" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B86" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="D85" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>558</v>
-      </c>
       <c r="D86" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B87" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C87" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B88" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>560</v>
-      </c>
       <c r="D88" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F88" s="30"/>
       <c r="G88" s="30" t="s">
@@ -6008,18 +6008,18 @@
       </c>
       <c r="H88" s="30"/>
       <c r="I88" s="30" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B89" s="35"/>
     </row>
-    <row r="91" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B92" s="2" t="s">
         <v>0</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B93" s="3" t="s">
         <v>1</v>
       </c>
@@ -6057,78 +6057,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B94" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B95" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B96" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G96" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B97" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D97" s="30" t="s">
         <v>131</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="30" t="s">
@@ -6136,381 +6136,381 @@
       </c>
       <c r="H97" s="30"/>
       <c r="I97" s="30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B98" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B99" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B100" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B101" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B102" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B103" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B104" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B105" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G105" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B106" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B107" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B108" s="31" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B109" s="31" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B110" s="31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B111" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>487</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>488</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B112" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B113" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B114" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B115" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B116" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D116" s="30" t="s">
         <v>19</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F116" s="30"/>
       <c r="G116" s="30" t="s">
@@ -6518,245 +6518,245 @@
       </c>
       <c r="H116" s="30"/>
       <c r="I116" s="30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B117" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D117" s="34" t="s">
         <v>19</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34" t="s">
         <v>128</v>
       </c>
       <c r="H117" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I117" s="34" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B118" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>152</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B119" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>153</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B120" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B121" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C121" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="D120" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>542</v>
-      </c>
       <c r="D121" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B122" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B123" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C123" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="28" t="s">
+      <c r="D123" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B124" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C124" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="D123" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="28" t="s">
+      <c r="D124" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B125" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C125" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="D124" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="I124" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="28" t="s">
+      <c r="D125" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B126" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C126" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D125" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="I125" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>547</v>
-      </c>
       <c r="D126" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B127" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B128" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C128" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="D127" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>549</v>
-      </c>
       <c r="D128" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E128" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F128" s="30"/>
       <c r="G128" s="30" t="s">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="H128" s="30"/>
       <c r="I128" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6784,20 +6784,20 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="79.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="17.59765625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="59.1328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="39.86328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.86328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="31" t="s">
         <v>47</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="36" t="s">
         <v>76</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="38" t="s">
         <v>46</v>
       </c>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39" t="s">
@@ -6887,10 +6887,10 @@
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="43" t="s">
         <v>82</v>
       </c>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42" t="s">
@@ -6907,19 +6907,19 @@
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="40" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>388</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>389</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="39" t="s">
@@ -6928,16 +6928,16 @@
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="39" t="s">
@@ -6946,7 +6946,7 @@
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="40" t="s">
         <v>83</v>
       </c>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" s="39" t="s">
@@ -6964,7 +6964,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="40" t="s">
         <v>84</v>
       </c>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="39" t="s">
@@ -6982,7 +6982,7 @@
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="40" t="s">
         <v>85</v>
       </c>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="39" t="s">
@@ -7000,16 +7000,16 @@
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>397</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>398</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="39" t="s">
@@ -7018,39 +7018,39 @@
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="40" t="s">
         <v>86</v>
       </c>
@@ -7059,14 +7059,14 @@
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="40" t="s">
         <v>87</v>
       </c>
@@ -7075,14 +7075,14 @@
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="40" t="s">
         <v>88</v>
       </c>
@@ -7091,39 +7091,39 @@
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>412</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>413</v>
       </c>
       <c r="D21" s="59"/>
       <c r="E21" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F21" s="59"/>
       <c r="G21" s="42" t="s">
@@ -7132,100 +7132,100 @@
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>415</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>416</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" s="40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G23" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="39" t="s">
@@ -7234,16 +7234,16 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="39" t="s">
@@ -7252,16 +7252,16 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="39" t="s">
@@ -7270,16 +7270,16 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="39" t="s">
@@ -7288,16 +7288,16 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="39" t="s">
@@ -7306,16 +7306,16 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="42" t="s">
@@ -7341,28 +7341,28 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="2" max="2" width="17.59765625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="22" t="s">
         <v>60</v>
       </c>
@@ -7416,12 +7416,12 @@
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>213</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>214</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="63" t="s">
@@ -7434,16 +7434,16 @@
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
@@ -7451,10 +7451,10 @@
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
@@ -7470,15 +7470,15 @@
         <v>55</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="6" t="s">
@@ -7488,10 +7488,10 @@
         <v>55</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="20" t="s">
         <v>137</v>
       </c>
@@ -7506,10 +7506,10 @@
         <v>55</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="19" t="s">
         <v>136</v>
       </c>
@@ -7525,16 +7525,16 @@
         <v>55</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="6" t="s">
@@ -7544,15 +7544,15 @@
         <v>55</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="19" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="24" t="s">
         <v>229</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>230</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="24" t="s">
@@ -7563,11 +7563,11 @@
         <v>55</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="21" t="s">
         <v>135</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>107</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>109</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>110</v>
       </c>
@@ -7639,12 +7639,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="6" t="s">
@@ -7654,10 +7654,10 @@
         <v>55</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>111</v>
       </c>
@@ -7675,12 +7675,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="6" t="s">
@@ -7693,12 +7693,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="6" t="s">
@@ -7708,15 +7708,15 @@
         <v>55</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="6" t="s">
@@ -7726,15 +7726,15 @@
         <v>55</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="6" t="s">
@@ -7747,12 +7747,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="6" t="s">
@@ -7762,15 +7762,15 @@
         <v>55</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="6" t="s">
@@ -7780,15 +7780,15 @@
         <v>55</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
@@ -7801,12 +7801,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
@@ -7816,15 +7816,15 @@
         <v>55</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="25" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="24" t="s">
@@ -7835,11 +7835,11 @@
         <v>55</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="5"/>
       <c r="D29" s="5"/>
     </row>
@@ -7860,21 +7860,21 @@
       <selection activeCell="B9" sqref="B9:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="17.59765625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="56.1328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="37" t="s">
         <v>64</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="35" t="s">
         <v>67</v>
       </c>
@@ -7942,48 +7942,48 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="65" t="s">
-        <v>200</v>
-      </c>
       <c r="E7" s="65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="65" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="30" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
         <v>140</v>
       </c>
@@ -7991,13 +7991,13 @@
         <v>141</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="28" t="s">
         <v>142</v>
       </c>
@@ -8005,69 +8005,69 @@
         <v>143</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="28" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="12" t="s">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="28" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="29" t="s">
         <v>150</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>149</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="68" t="s">
         <v>151</v>
@@ -8098,23 +8098,23 @@
   </sheetPr>
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="85.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
@@ -8124,7 +8124,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -8134,7 +8134,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
@@ -8165,13 +8165,13 @@
         <v>134</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>173</v>
       </c>
@@ -8182,10 +8182,10 @@
         <v>134</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>175</v>
       </c>
@@ -8196,24 +8196,24 @@
         <v>134</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>177</v>
       </c>
@@ -8224,24 +8224,24 @@
         <v>134</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>179</v>
       </c>
@@ -8252,10 +8252,10 @@
         <v>134</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>181</v>
       </c>
@@ -8266,10 +8266,10 @@
         <v>134</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>185</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>186</v>
       </c>
@@ -8294,10 +8294,10 @@
         <v>134</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>187</v>
       </c>
@@ -8308,10 +8308,10 @@
         <v>134</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>188</v>
       </c>
@@ -8322,10 +8322,10 @@
         <v>134</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>183</v>
       </c>
@@ -8336,135 +8336,135 @@
         <v>134</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="6" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>588</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="24" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
-        <v>590</v>
-      </c>
       <c r="C22" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="C25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D26" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>256</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>

--- a/Sets-GEO.xlsx
+++ b/Sets-GEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0786FE8-846A-4C8F-9717-C6F8DE5971B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E1431-DA04-45A7-9E57-0D34609459DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="672">
   <si>
     <t>~TFM_PSets</t>
   </si>
@@ -2096,6 +2096,15 @@
   </si>
   <si>
     <t>*WON,*WOF</t>
+  </si>
+  <si>
+    <t>P-Elc_Sto</t>
+  </si>
+  <si>
+    <t>Elec Storage</t>
+  </si>
+  <si>
+    <t>STS,STG</t>
   </si>
 </sst>
 </file>
@@ -4106,7 +4115,7 @@
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4367,8 +4376,8 @@
   </sheetPr>
   <dimension ref="B1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5176,6 +5185,20 @@
       <c r="H44" s="30"/>
       <c r="I44" s="30" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B45" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
@@ -8098,7 +8121,7 @@
   </sheetPr>
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Sets-GEO.xlsx
+++ b/Sets-GEO.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
+  <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E1431-DA04-45A7-9E57-0D34609459DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Legend" sheetId="8" r:id="rId1"/>
-    <sheet name="Proc_Sets_General" sheetId="1" r:id="rId2"/>
-    <sheet name="Proc_Sets_UPS" sheetId="4" r:id="rId3"/>
-    <sheet name="Proc_Sets_PWR" sheetId="2" r:id="rId4"/>
-    <sheet name="Proc_Sets_RSD-SRV" sheetId="5" r:id="rId5"/>
-    <sheet name="Proc_Sets_TRA" sheetId="6" r:id="rId6"/>
-    <sheet name="Proc_Sets_IND-AGR" sheetId="7" r:id="rId7"/>
-    <sheet name="Comm_Sets" sheetId="3" r:id="rId8"/>
+    <sheet name="Legend" sheetId="8" r:id="rId3"/>
+    <sheet name="Proc_Sets_General" sheetId="1" r:id="rId4"/>
+    <sheet name="Proc_Sets_UPS" sheetId="4" r:id="rId5"/>
+    <sheet name="Proc_Sets_PWR" sheetId="2" r:id="rId6"/>
+    <sheet name="Proc_Sets_RSD-SRV" sheetId="5" r:id="rId7"/>
+    <sheet name="Proc_Sets_TRA" sheetId="6" r:id="rId8"/>
+    <sheet name="Proc_Sets_IND-AGR" sheetId="7" r:id="rId9"/>
+    <sheet name="Comm_Sets" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
@@ -67,7 +66,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -76,7 +74,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="672">
   <si>
     <t>~TFM_PSets</t>
   </si>
@@ -700,7 +697,7 @@
     <t>MIN</t>
   </si>
   <si>
-    <t>MIN*</t>
+    <t>MIN*,U-DD*</t>
   </si>
   <si>
     <t>ALLNUC</t>
@@ -2117,7 +2114,7 @@
     <numFmt numFmtId="166" formatCode="???,???.00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2126,11 +2123,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2196,14 +2192,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2215,14 +2203,14 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -2231,7 +2219,7 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2264,30 +2252,20 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2334,13 +2312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor rgb="FFC2D69A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC2D69A"/>
+        <fgColor theme="6" tint="0.599990010261536"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,18 +2336,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599990010261536"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2375,12 +2353,21 @@
       <left/>
       <right/>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="0"/>
       </top>
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2395,7 +2382,14 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -2404,90 +2398,12 @@
       <right style="thin">
         <color indexed="22"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2500,74 +2416,6 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2580,9 +2428,8 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2595,7 +2442,46 @@
         <color indexed="22"/>
       </top>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -2605,12 +2491,63 @@
         <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -2623,7 +2560,6 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2634,9 +2570,16 @@
         <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -2647,7 +2590,6 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2656,9 +2598,8 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2671,7 +2612,6 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2684,342 +2624,546 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="25" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="24" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="25" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="34">
-    <cellStyle name="a_Calc_Outputs" xfId="12" xr:uid="{F3B733CB-9C19-4D45-9722-13862E8D6D18}"/>
-    <cellStyle name="Comma 2" xfId="9" xr:uid="{0B867E56-6E85-427F-BA31-960682B8B332}"/>
-    <cellStyle name="Comma 2 2" xfId="27" xr:uid="{A5F9900A-942D-4460-B466-512FF043FFC6}"/>
-    <cellStyle name="Comma 3" xfId="14" xr:uid="{258F88F1-AF06-4DFF-B41C-882FC1D988CE}"/>
-    <cellStyle name="Comma 4" xfId="30" xr:uid="{1895E9DF-D911-4DDE-AFC7-56669C4C570E}"/>
-    <cellStyle name="Desc" xfId="31" xr:uid="{44C55CDF-E772-4670-81A9-EB0CCECA2CF4}"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="23" xr:uid="{537B5D5A-1967-4885-9A78-E5212B1EFD1D}"/>
+  <cellStyles count="39">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{74AB92AB-417E-40C5-BA1F-7B2D0CF6E7AC}"/>
-    <cellStyle name="Normal 10 3" xfId="22" xr:uid="{D3BE8BD9-1BCF-467F-B538-974F22F5F933}"/>
-    <cellStyle name="Normal 13" xfId="19" xr:uid="{EF2597FF-6F51-452F-BB84-2CAC2F550A37}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{7D7573DE-B37D-4754-9978-548FB65BF787}"/>
-    <cellStyle name="Normal 2 10" xfId="11" xr:uid="{50A922B6-B9C0-4779-9562-264454AF623D}"/>
-    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{F508E19E-459B-42EE-AC9E-711386FBB4FF}"/>
-    <cellStyle name="Normal 2 2 2" xfId="24" xr:uid="{7E2D134D-DD66-4F79-9BFD-09A52588D2AB}"/>
-    <cellStyle name="Normal 2 3" xfId="25" xr:uid="{7CD84D84-E8B8-4102-82BD-59E2414C87CC}"/>
-    <cellStyle name="Normal 2 4" xfId="29" xr:uid="{9B6D6C0F-7159-4860-9FB7-D4AE5BA47452}"/>
-    <cellStyle name="Normal 2 45" xfId="32" xr:uid="{3A7015B7-5251-4510-8FCD-5EEED95D12E2}"/>
-    <cellStyle name="Normal 3" xfId="17" xr:uid="{7063AB02-8F55-4640-A2AD-C2FA82B94DD6}"/>
-    <cellStyle name="Normal 3 2" xfId="15" xr:uid="{1DBAA774-88A6-418A-A50E-DFF5149FDB9B}"/>
-    <cellStyle name="Normal 3 28" xfId="7" xr:uid="{92C9FC4F-E839-4BC3-8B6E-F058283C544F}"/>
-    <cellStyle name="Normal 3 3" xfId="8" xr:uid="{66B1FAEF-DE08-448D-B6B9-AD272B32EC61}"/>
-    <cellStyle name="Normal 3 4" xfId="26" xr:uid="{89F395C6-8ACA-48BA-B639-8F748106E751}"/>
-    <cellStyle name="Normal 4" xfId="18" xr:uid="{33185964-3C94-41A9-B10E-4F3940B01B67}"/>
-    <cellStyle name="Normal 4 2" xfId="21" xr:uid="{9BCA211D-E4FA-4402-81C4-89D6A8E5EAF2}"/>
-    <cellStyle name="Normal 4 38" xfId="10" xr:uid="{123E263A-0062-4F7B-8477-CF931E7E57B2}"/>
-    <cellStyle name="Normal 50" xfId="5" xr:uid="{F61AB6F2-3AED-45F6-8CEF-E770D2E3F791}"/>
-    <cellStyle name="Normal 50 2" xfId="33" xr:uid="{CF79CB69-075A-414E-B672-F42C914052CF}"/>
-    <cellStyle name="Normal 50 7" xfId="6" xr:uid="{2AFD2955-277E-4BCB-A9BF-19C20928D731}"/>
-    <cellStyle name="Normale_Foglio2" xfId="2" xr:uid="{D0D7BD0B-5F0F-428D-BF59-BC62724B65AD}"/>
-    <cellStyle name="Percent 2" xfId="4" xr:uid="{8EC52CB5-64B9-4637-8BAB-969CCF42048C}"/>
-    <cellStyle name="Percent 2 2" xfId="16" xr:uid="{2F2BCE78-6D40-4DA6-9059-3B5E64631273}"/>
-    <cellStyle name="Percent 3" xfId="28" xr:uid="{C95F8BA1-43F6-475B-A790-C142721E331C}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Normal 10 2" xfId="20"/>
+    <cellStyle name="Normale_Foglio2" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="22"/>
+    <cellStyle name="Percent 2" xfId="23"/>
+    <cellStyle name="Normal 50" xfId="24"/>
+    <cellStyle name="Normal 50 7" xfId="25"/>
+    <cellStyle name="Normal 3 28" xfId="26"/>
+    <cellStyle name="Normal 3 3" xfId="27"/>
+    <cellStyle name="Comma 2" xfId="28"/>
+    <cellStyle name="Normal 4 38" xfId="29"/>
+    <cellStyle name="Normal 2 10" xfId="30"/>
+    <cellStyle name="a_Calc_Outputs" xfId="31"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8"/>
+    <cellStyle name="Comma 3" xfId="33"/>
+    <cellStyle name="Normal 3 2" xfId="34"/>
+    <cellStyle name="Percent 2 2" xfId="35"/>
+    <cellStyle name="Normal 3" xfId="36"/>
+    <cellStyle name="Normal 4" xfId="37"/>
+    <cellStyle name="Normal 13" xfId="38"/>
+    <cellStyle name="Normal 2 2" xfId="39"/>
+    <cellStyle name="Normal 4 2" xfId="40"/>
+    <cellStyle name="Normal 10 3" xfId="41"/>
+    <cellStyle name="Hyperlink 2" xfId="42"/>
+    <cellStyle name="Normal 2 2 2" xfId="43"/>
+    <cellStyle name="Normal 2 3" xfId="44"/>
+    <cellStyle name="Normal 3 4" xfId="45"/>
+    <cellStyle name="Comma 2 2" xfId="46"/>
+    <cellStyle name="Percent 3" xfId="47"/>
+    <cellStyle name="Normal 2 4" xfId="48"/>
+    <cellStyle name="Comma 4" xfId="49"/>
+    <cellStyle name="Desc" xfId="50"/>
+    <cellStyle name="Normal 2 45" xfId="51"/>
+    <cellStyle name="Normal 50 2" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3032,7 +3176,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3051,7 +3195,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB0979C-9057-4919-B850-4C370C09333B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7bb0979c-9057-4919-b850-4c370c09333b}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,25 +3203,25 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
-        <a:stretch/>
+        <a:srcRect l="4618" t="8934" r="7746" b="12925"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057275" y="1638300"/>
-          <a:ext cx="1431433" cy="576000"/>
+          <a:off x="1057275" y="1619250"/>
+          <a:ext cx="1428750" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3100,7 +3244,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4301CA-8DAC-4417-A97A-698F758CF825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7c4301ca-8dac-4417-a97a-698f758cf825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,10 +3253,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3122,12 +3266,10 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2995348" y="1638300"/>
-          <a:ext cx="1250988" cy="576000"/>
+          <a:off x="2990850" y="1619250"/>
+          <a:ext cx="1247775" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3150,7 +3292,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746184ED-E5EC-41BB-989C-625CCA95363D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746184ed-e5ec-41bb-989c-625cca95363d}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,10 +3301,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3172,12 +3314,10 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772026" y="1638300"/>
-          <a:ext cx="2018073" cy="576000"/>
+          <a:off x="4772025" y="1619250"/>
+          <a:ext cx="2019300" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3192,15 +3332,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>290250</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21C3391-41B7-4FC5-93C8-83F5B121049F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{c21c3391-41b7-4fc5-93c8-83f5b121049f}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,25 +3348,25 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+      <xdr:blipFill>
+        <a:blip r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
-        <a:stretch/>
+        <a:srcRect l="1368" t="6564" r="4011" b="6336"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1142250" y="714375"/>
-          <a:ext cx="1400925" cy="576000"/>
+          <a:off x="1143000" y="695325"/>
+          <a:ext cx="1400175" cy="581025"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3249,7 +3389,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB336379-200F-4243-B626-509F5E20086D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ab336379-200f-4243-b626-509f5e20086d}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,10 +3398,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3271,12 +3411,10 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5157787" y="907256"/>
-          <a:ext cx="1814926" cy="286990"/>
+          <a:off x="5153025" y="885825"/>
+          <a:ext cx="1819275" cy="285750"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3299,35 +3437,32 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C3BDDB-F453-44A8-ABE9-AB628AA7F112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{c4c3bddb-f453-44a8-abe9-ab628aa7f112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2705100" y="523875"/>
-          <a:ext cx="2108814" cy="1032543"/>
+          <a:off x="2705100" y="504825"/>
+          <a:ext cx="2105025" cy="1028700"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -3607,24 +3742,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B86CC-771F-4B39-BBB3-D245A22B5D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B86CC-771F-4B39-BBB3-D245A22B5D71}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="28.265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="4" width="28.2857142857143" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.7142857142857" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="31.15" thickBot="1">
       <c r="A1" s="78" t="s">
         <v>658</v>
       </c>
@@ -3633,42 +3768,42 @@
       <c r="D1" s="80"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="23.25">
       <c r="A2" s="55"/>
       <c r="B2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="23.25">
       <c r="A3" s="55"/>
       <c r="B3" s="8"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="55"/>
       <c r="B4" s="8"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="23.25">
       <c r="A5" s="55"/>
       <c r="B5" s="8"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="23.25">
       <c r="A6" s="55"/>
       <c r="B6" s="8"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="23.25">
       <c r="A7" s="55"/>
       <c r="B7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="23.25">
       <c r="A8" s="55"/>
       <c r="B8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="7" t="s">
         <v>92</v>
       </c>
@@ -3678,7 +3813,7 @@
       <c r="C9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
@@ -3687,7 +3822,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="69" t="s">
         <v>659</v>
       </c>
@@ -3696,13 +3831,13 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="71"/>
       <c r="B12" s="70" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" s="7" t="s">
         <v>94</v>
       </c>
@@ -3710,7 +3845,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" s="0" customFormat="1" ht="14.25">
       <c r="A14" s="72" t="s">
         <v>662</v>
       </c>
@@ -3720,7 +3855,7 @@
       <c r="C14" s="70"/>
       <c r="D14" s="74"/>
     </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" s="0" customFormat="1" ht="14.25">
       <c r="A15" s="72" t="s">
         <v>663</v>
       </c>
@@ -3730,7 +3865,7 @@
       <c r="C15" s="70"/>
       <c r="D15" s="74"/>
     </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="0" customFormat="1" ht="14.25">
       <c r="A16" s="72" t="s">
         <v>665</v>
       </c>
@@ -3740,7 +3875,7 @@
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" s="0" customFormat="1" ht="14.25">
       <c r="A17" s="74"/>
       <c r="B17" s="76" t="s">
         <v>667</v>
@@ -3748,17 +3883,17 @@
       <c r="C17" s="77"/>
       <c r="D17" s="77"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>96</v>
       </c>
@@ -3769,7 +3904,7 @@
       <c r="D20" s="16"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>230</v>
       </c>
@@ -3779,7 +3914,7 @@
       <c r="C21" s="83"/>
       <c r="D21" s="84"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>231</v>
       </c>
@@ -3790,7 +3925,7 @@
       <c r="D22" s="84"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>232</v>
       </c>
@@ -3801,7 +3936,7 @@
       <c r="D23" s="84"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="56" t="s">
         <v>233</v>
       </c>
@@ -3812,7 +3947,7 @@
       <c r="D24" s="84"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>234</v>
       </c>
@@ -3823,7 +3958,7 @@
       <c r="D25" s="84"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>235</v>
       </c>
@@ -3834,7 +3969,7 @@
       <c r="D26" s="84"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>236</v>
       </c>
@@ -3845,15 +3980,15 @@
       <c r="D27" s="84"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" ht="14.25">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" ht="21">
       <c r="A29" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="53" t="s">
         <v>258</v>
       </c>
@@ -3861,7 +3996,7 @@
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="54"/>
       <c r="B31" s="50" t="s">
         <v>259</v>
@@ -3883,48 +4018,48 @@
     <mergeCell ref="B23:D23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{B778764C-C3CF-4F63-9537-D06401DEA3D8}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{0D5DF3D3-04AF-494F-9739-17A966530654}"/>
+    <hyperlink ref="B17" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://github.com/MaREI-EPMG/TIMES-GEO"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
   <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="33.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="33.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="23.25">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3936,7 +4071,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3962,7 +4097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="14.25">
       <c r="B5" s="23" t="s">
         <v>72</v>
       </c>
@@ -3976,130 +4111,130 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" ht="14.25">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" ht="14.25">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="14.25">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" ht="14.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" ht="14.25">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" ht="14.25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2" ht="14.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:2" ht="14.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2" ht="14.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" ht="14.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" ht="14.25">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" ht="14.25">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" ht="14.25">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" ht="14.25">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" ht="14.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" ht="14.25">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" ht="14.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" ht="14.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" ht="14.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" ht="14.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" ht="14.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" ht="14.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" ht="14.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" ht="14.25">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" ht="14.25">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" ht="14.25">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" ht="14.25">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:2" ht="14.25">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" ht="14.25">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:2" ht="14.25">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" ht="14.25">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:2" ht="14.25">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:2" ht="14.25">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" ht="14.25">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" ht="14.25">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:2" ht="14.25">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:2" ht="14.25">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" ht="14.25">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" ht="14.25">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" ht="14.25">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" ht="14.25">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" ht="14.25">
       <c r="B49" s="5"/>
     </row>
   </sheetData>
@@ -4108,38 +4243,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BB74D-895B-4B44-B605-634322E96F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BB74D-895B-4B44-B605-634322E96F6F}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="6"/>
+    <col min="2" max="2" width="17.5714285714286" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.5714285714286" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5714285714286" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="23.25">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4286,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" ht="14.65" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4176,8 +4311,9 @@
       <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" ht="14.25">
       <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
@@ -4191,21 +4327,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="14.25">
       <c r="B6" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" ht="14.25">
       <c r="B7" s="6" t="s">
         <v>261</v>
       </c>
@@ -4216,7 +4353,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
         <v>121</v>
       </c>
@@ -4227,7 +4364,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="6" t="s">
         <v>560</v>
       </c>
@@ -4244,7 +4381,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" ht="14.25">
       <c r="B10" s="6" t="s">
         <v>567</v>
       </c>
@@ -4261,7 +4398,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" ht="14.25">
       <c r="B11" s="6" t="s">
         <v>570</v>
       </c>
@@ -4278,7 +4415,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="6" t="s">
         <v>572</v>
       </c>
@@ -4295,7 +4432,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="14.25">
       <c r="B13" s="46" t="s">
         <v>208</v>
       </c>
@@ -4311,7 +4448,7 @@
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="14.25">
       <c r="B14" s="33" t="s">
         <v>219</v>
       </c>
@@ -4327,7 +4464,7 @@
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" ht="14.25">
       <c r="B15" s="63" t="s">
         <v>266</v>
       </c>
@@ -4345,7 +4482,7 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" ht="14.25">
       <c r="B16" s="24" t="s">
         <v>562</v>
       </c>
@@ -4365,43 +4502,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F47B-2C2A-48ED-B8E9-A3DABC0C44F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F47B-2C2A-48ED-B8E9-A3DABC0C44F6}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="B1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0" topLeftCell="A8">
+      <selection pane="topLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.1328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="12"/>
+    <col min="2" max="2" width="17.5714285714286" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.1428571428571" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.2857142857143" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="12" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5714285714286" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5714285714286" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="23.25">
       <c r="B1" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4550,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4439,7 +4576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="14.25">
       <c r="B5" s="26" t="s">
         <v>30</v>
       </c>
@@ -4455,7 +4592,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="14.25">
       <c r="B6" s="28" t="s">
         <v>124</v>
       </c>
@@ -4475,7 +4612,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="14.25">
       <c r="B7" s="28" t="s">
         <v>125</v>
       </c>
@@ -4495,7 +4632,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="14.25">
       <c r="B8" s="28" t="s">
         <v>272</v>
       </c>
@@ -4515,7 +4652,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" ht="14.25">
       <c r="B9" s="29" t="s">
         <v>126</v>
       </c>
@@ -4537,7 +4674,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" ht="14.25">
       <c r="B10" s="28" t="s">
         <v>17</v>
       </c>
@@ -4557,7 +4694,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" ht="14.25">
       <c r="B11" s="28" t="s">
         <v>614</v>
       </c>
@@ -4577,7 +4714,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" ht="14.25">
       <c r="B12" s="28" t="s">
         <v>20</v>
       </c>
@@ -4597,7 +4734,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="14.25">
       <c r="B13" s="28" t="s">
         <v>615</v>
       </c>
@@ -4617,7 +4754,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="14.25">
       <c r="B14" s="28" t="s">
         <v>22</v>
       </c>
@@ -4634,7 +4771,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" ht="14.25">
       <c r="B15" s="28" t="s">
         <v>26</v>
       </c>
@@ -4651,7 +4788,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" ht="14.25">
       <c r="B16" s="28" t="s">
         <v>154</v>
       </c>
@@ -4668,7 +4805,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="14.25">
       <c r="B17" s="31" t="s">
         <v>157</v>
       </c>
@@ -4688,7 +4825,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="14.25">
       <c r="B18" s="31" t="s">
         <v>160</v>
       </c>
@@ -4708,7 +4845,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="14.25">
       <c r="B19" s="32" t="s">
         <v>155</v>
       </c>
@@ -4725,7 +4862,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="14.25">
       <c r="B20" s="32" t="s">
         <v>164</v>
       </c>
@@ -4745,7 +4882,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="14.25">
       <c r="B21" s="32" t="s">
         <v>165</v>
       </c>
@@ -4765,7 +4902,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="14.25">
       <c r="B22" s="31" t="s">
         <v>464</v>
       </c>
@@ -4782,7 +4919,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="14.25">
       <c r="B23" s="31" t="s">
         <v>465</v>
       </c>
@@ -4802,7 +4939,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="14.25">
       <c r="B24" s="31" t="s">
         <v>466</v>
       </c>
@@ -4822,7 +4959,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="14.25">
       <c r="B25" s="31" t="s">
         <v>467</v>
       </c>
@@ -4839,7 +4976,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="14.25">
       <c r="B26" s="28" t="s">
         <v>24</v>
       </c>
@@ -4859,7 +4996,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="14.25">
       <c r="B27" s="28" t="s">
         <v>618</v>
       </c>
@@ -4879,7 +5016,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="14.25">
       <c r="B28" s="28" t="s">
         <v>471</v>
       </c>
@@ -4899,7 +5036,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="14.25">
       <c r="B29" s="28" t="s">
         <v>620</v>
       </c>
@@ -4919,7 +5056,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="14.25">
       <c r="B30" s="28" t="s">
         <v>474</v>
       </c>
@@ -4936,7 +5073,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="14.25">
       <c r="B31" s="28" t="s">
         <v>470</v>
       </c>
@@ -4953,7 +5090,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="14.25">
       <c r="B32" s="29" t="s">
         <v>33</v>
       </c>
@@ -4973,7 +5110,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="14.25">
       <c r="B33" s="33" t="s">
         <v>210</v>
       </c>
@@ -4997,7 +5134,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="14.25">
       <c r="B34" s="28" t="s">
         <v>515</v>
       </c>
@@ -5014,7 +5151,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="14.25">
       <c r="B35" s="28" t="s">
         <v>516</v>
       </c>
@@ -5031,7 +5168,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="28" t="s">
         <v>517</v>
       </c>
@@ -5048,7 +5185,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="14.25">
       <c r="B37" s="28" t="s">
         <v>518</v>
       </c>
@@ -5065,7 +5202,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="14.25">
       <c r="B38" s="28" t="s">
         <v>520</v>
       </c>
@@ -5082,7 +5219,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="28" t="s">
         <v>521</v>
       </c>
@@ -5099,7 +5236,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="14.25">
       <c r="B40" s="28" t="s">
         <v>522</v>
       </c>
@@ -5116,7 +5253,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="14.25">
       <c r="B41" s="28" t="s">
         <v>523</v>
       </c>
@@ -5133,7 +5270,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="14.25">
       <c r="B42" s="35" t="s">
         <v>524</v>
       </c>
@@ -5150,7 +5287,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="14.25">
       <c r="B43" s="35" t="s">
         <v>525</v>
       </c>
@@ -5167,7 +5304,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="14.25">
       <c r="B44" s="29" t="s">
         <v>519</v>
       </c>
@@ -5187,7 +5324,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" ht="14.25">
       <c r="B45" s="12" t="s">
         <v>669</v>
       </c>
@@ -5201,12 +5338,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" ht="23.25">
       <c r="B47" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="14.25">
       <c r="B48" s="2" t="s">
         <v>0</v>
       </c>
@@ -5218,7 +5355,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:9" ht="14.65" thickBot="1">
       <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
@@ -5244,7 +5381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="14.25">
       <c r="B50" s="28" t="s">
         <v>281</v>
       </c>
@@ -5264,7 +5401,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="14.25">
       <c r="B51" s="28" t="s">
         <v>282</v>
       </c>
@@ -5284,7 +5421,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="14.25">
       <c r="B52" s="28" t="s">
         <v>283</v>
       </c>
@@ -5304,7 +5441,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="14.25">
       <c r="B53" s="29" t="s">
         <v>284</v>
       </c>
@@ -5326,7 +5463,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="14.25">
       <c r="B54" s="28" t="s">
         <v>290</v>
       </c>
@@ -5346,7 +5483,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="14.25">
       <c r="B55" s="28" t="s">
         <v>624</v>
       </c>
@@ -5366,7 +5503,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="14.25">
       <c r="B56" s="28" t="s">
         <v>291</v>
       </c>
@@ -5386,7 +5523,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="14.25">
       <c r="B57" s="28" t="s">
         <v>626</v>
       </c>
@@ -5406,7 +5543,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="14.25">
       <c r="B58" s="28" t="s">
         <v>292</v>
       </c>
@@ -5426,7 +5563,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="14.25">
       <c r="B59" s="28" t="s">
         <v>293</v>
       </c>
@@ -5446,7 +5583,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="14.25">
       <c r="B60" s="28" t="s">
         <v>294</v>
       </c>
@@ -5466,7 +5603,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="14.25">
       <c r="B61" s="31" t="s">
         <v>295</v>
       </c>
@@ -5486,7 +5623,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="14.25">
       <c r="B62" s="31" t="s">
         <v>296</v>
       </c>
@@ -5506,7 +5643,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="14.25">
       <c r="B63" s="32" t="s">
         <v>297</v>
       </c>
@@ -5526,7 +5663,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="14.25">
       <c r="B64" s="32" t="s">
         <v>298</v>
       </c>
@@ -5546,7 +5683,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="14.25">
       <c r="B65" s="32" t="s">
         <v>299</v>
       </c>
@@ -5566,7 +5703,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="14.25">
       <c r="B66" s="31" t="s">
         <v>657</v>
       </c>
@@ -5586,7 +5723,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="14.25">
       <c r="B67" s="31" t="s">
         <v>655</v>
       </c>
@@ -5606,7 +5743,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="14.25">
       <c r="B68" s="31" t="s">
         <v>656</v>
       </c>
@@ -5626,7 +5763,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="14.25">
       <c r="B69" s="31" t="s">
         <v>479</v>
       </c>
@@ -5646,7 +5783,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="14.25">
       <c r="B70" s="28" t="s">
         <v>300</v>
       </c>
@@ -5666,7 +5803,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="14.25">
       <c r="B71" s="28" t="s">
         <v>628</v>
       </c>
@@ -5686,7 +5823,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="14.25">
       <c r="B72" s="28" t="s">
         <v>481</v>
       </c>
@@ -5706,7 +5843,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="14.25">
       <c r="B73" s="28" t="s">
         <v>629</v>
       </c>
@@ -5726,7 +5863,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="14.25">
       <c r="B74" s="28" t="s">
         <v>482</v>
       </c>
@@ -5746,7 +5883,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="14.25">
       <c r="B75" s="28" t="s">
         <v>478</v>
       </c>
@@ -5766,7 +5903,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="14.25">
       <c r="B76" s="29" t="s">
         <v>301</v>
       </c>
@@ -5788,7 +5925,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="14.25">
       <c r="B77" s="33" t="s">
         <v>302</v>
       </c>
@@ -5812,7 +5949,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="14.25">
       <c r="B78" s="28" t="s">
         <v>493</v>
       </c>
@@ -5832,7 +5969,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="14.25">
       <c r="B79" s="28" t="s">
         <v>494</v>
       </c>
@@ -5852,7 +5989,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="14.25">
       <c r="B80" s="28" t="s">
         <v>495</v>
       </c>
@@ -5872,7 +6009,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="14.25">
       <c r="B81" s="28" t="s">
         <v>496</v>
       </c>
@@ -5892,7 +6029,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="14.25">
       <c r="B82" s="28" t="s">
         <v>498</v>
       </c>
@@ -5912,7 +6049,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="14.25">
       <c r="B83" s="28" t="s">
         <v>499</v>
       </c>
@@ -5932,7 +6069,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="14.25">
       <c r="B84" s="28" t="s">
         <v>500</v>
       </c>
@@ -5952,7 +6089,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="14.25">
       <c r="B85" s="28" t="s">
         <v>501</v>
       </c>
@@ -5972,7 +6109,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="14.25">
       <c r="B86" s="35" t="s">
         <v>502</v>
       </c>
@@ -5992,7 +6129,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="14.25">
       <c r="B87" s="35" t="s">
         <v>503</v>
       </c>
@@ -6012,7 +6149,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="14.25">
       <c r="B88" s="29" t="s">
         <v>497</v>
       </c>
@@ -6034,15 +6171,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:2" ht="14.25">
       <c r="B89" s="35"/>
     </row>
-    <row r="91" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:2" ht="23.25">
       <c r="B91" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="14.25">
       <c r="B92" s="2" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +6191,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:9" ht="14.65" thickBot="1">
       <c r="B93" s="3" t="s">
         <v>1</v>
       </c>
@@ -6080,7 +6217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="14.25">
       <c r="B94" s="28" t="s">
         <v>333</v>
       </c>
@@ -6100,7 +6237,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="14.25">
       <c r="B95" s="28" t="s">
         <v>334</v>
       </c>
@@ -6120,7 +6257,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="14.25">
       <c r="B96" s="28" t="s">
         <v>335</v>
       </c>
@@ -6140,7 +6277,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="14.25">
       <c r="B97" s="29" t="s">
         <v>336</v>
       </c>
@@ -6162,7 +6299,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="14.25">
       <c r="B98" s="28" t="s">
         <v>337</v>
       </c>
@@ -6182,7 +6319,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="14.25">
       <c r="B99" s="28" t="s">
         <v>338</v>
       </c>
@@ -6202,7 +6339,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="14.25">
       <c r="B100" s="28" t="s">
         <v>339</v>
       </c>
@@ -6222,7 +6359,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="14.25">
       <c r="B101" s="28" t="s">
         <v>340</v>
       </c>
@@ -6242,7 +6379,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="14.25">
       <c r="B102" s="28" t="s">
         <v>341</v>
       </c>
@@ -6262,7 +6399,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="14.25">
       <c r="B103" s="31" t="s">
         <v>342</v>
       </c>
@@ -6282,7 +6419,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="14.25">
       <c r="B104" s="31" t="s">
         <v>343</v>
       </c>
@@ -6302,7 +6439,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="14.25">
       <c r="B105" s="32" t="s">
         <v>344</v>
       </c>
@@ -6322,7 +6459,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="14.25">
       <c r="B106" s="32" t="s">
         <v>345</v>
       </c>
@@ -6342,7 +6479,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="14.25">
       <c r="B107" s="32" t="s">
         <v>346</v>
       </c>
@@ -6362,7 +6499,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="14.25">
       <c r="B108" s="31" t="s">
         <v>652</v>
       </c>
@@ -6382,7 +6519,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="14.25">
       <c r="B109" s="31" t="s">
         <v>653</v>
       </c>
@@ -6402,7 +6539,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="14.25">
       <c r="B110" s="31" t="s">
         <v>654</v>
       </c>
@@ -6422,7 +6559,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="14.25">
       <c r="B111" s="31" t="s">
         <v>486</v>
       </c>
@@ -6442,7 +6579,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="14.25">
       <c r="B112" s="28" t="s">
         <v>347</v>
       </c>
@@ -6462,7 +6599,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="14.25">
       <c r="B113" s="28" t="s">
         <v>488</v>
       </c>
@@ -6482,7 +6619,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="14.25">
       <c r="B114" s="28" t="s">
         <v>489</v>
       </c>
@@ -6502,7 +6639,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="14.25">
       <c r="B115" s="28" t="s">
         <v>480</v>
       </c>
@@ -6522,7 +6659,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="14.25">
       <c r="B116" s="29" t="s">
         <v>348</v>
       </c>
@@ -6544,7 +6681,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="14.25">
       <c r="B117" s="33" t="s">
         <v>349</v>
       </c>
@@ -6568,7 +6705,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="14.25">
       <c r="B118" s="28" t="s">
         <v>527</v>
       </c>
@@ -6588,7 +6725,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="14.25">
       <c r="B119" s="28" t="s">
         <v>528</v>
       </c>
@@ -6608,7 +6745,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="14.25">
       <c r="B120" s="28" t="s">
         <v>529</v>
       </c>
@@ -6628,7 +6765,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="14.25">
       <c r="B121" s="28" t="s">
         <v>530</v>
       </c>
@@ -6648,7 +6785,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="14.25">
       <c r="B122" s="28" t="s">
         <v>531</v>
       </c>
@@ -6668,7 +6805,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="14.25">
       <c r="B123" s="28" t="s">
         <v>532</v>
       </c>
@@ -6688,7 +6825,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="14.25">
       <c r="B124" s="28" t="s">
         <v>533</v>
       </c>
@@ -6708,7 +6845,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="14.25">
       <c r="B125" s="28" t="s">
         <v>534</v>
       </c>
@@ -6728,7 +6865,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="14.25">
       <c r="B126" s="35" t="s">
         <v>535</v>
       </c>
@@ -6748,7 +6885,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="14.25">
       <c r="B127" s="35" t="s">
         <v>536</v>
       </c>
@@ -6768,7 +6905,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="14.25">
       <c r="B128" s="29" t="s">
         <v>537</v>
       </c>
@@ -6792,35 +6929,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DD5C6-DFE1-4B3C-9400-DAD545AE00E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DD5C6-DFE1-4B3C-9400-DAD545AE00E2}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="59.1328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="39.86328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.86328125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="12"/>
+    <col min="2" max="2" width="17.5714285714286" style="12" customWidth="1"/>
+    <col min="3" max="3" width="59.1428571428571" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" style="12" customWidth="1"/>
+    <col min="5" max="5" width="39.8571428571429" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.8571428571429" style="12" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="23.25">
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
@@ -6828,7 +6965,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6840,7 +6977,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -6866,7 +7003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" ht="14.25">
       <c r="B5" s="31" t="s">
         <v>47</v>
       </c>
@@ -6877,7 +7014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="14.25">
       <c r="B6" s="36" t="s">
         <v>76</v>
       </c>
@@ -6893,7 +7030,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="14.25">
       <c r="B7" s="38" t="s">
         <v>46</v>
       </c>
@@ -6913,7 +7050,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="14.25">
       <c r="B8" s="43" t="s">
         <v>82</v>
       </c>
@@ -6933,7 +7070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" ht="14.25">
       <c r="B9" s="40" t="s">
         <v>387</v>
       </c>
@@ -6951,7 +7088,7 @@
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" ht="14.25">
       <c r="B10" s="40" t="s">
         <v>390</v>
       </c>
@@ -6969,7 +7106,7 @@
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" ht="14.25">
       <c r="B11" s="40" t="s">
         <v>83</v>
       </c>
@@ -6987,7 +7124,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" ht="14.25">
       <c r="B12" s="40" t="s">
         <v>84</v>
       </c>
@@ -7005,7 +7142,7 @@
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="14.25">
       <c r="B13" s="40" t="s">
         <v>85</v>
       </c>
@@ -7023,7 +7160,7 @@
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="14.25">
       <c r="B14" s="40" t="s">
         <v>396</v>
       </c>
@@ -7041,7 +7178,7 @@
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" ht="14.25">
       <c r="B15" s="40" t="s">
         <v>402</v>
       </c>
@@ -7057,7 +7194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="14.25">
       <c r="B16" s="40" t="s">
         <v>404</v>
       </c>
@@ -7073,7 +7210,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" ht="14.25">
       <c r="B17" s="40" t="s">
         <v>86</v>
       </c>
@@ -7089,7 +7226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" ht="14.25">
       <c r="B18" s="40" t="s">
         <v>87</v>
       </c>
@@ -7105,7 +7242,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" ht="14.25">
       <c r="B19" s="40" t="s">
         <v>88</v>
       </c>
@@ -7121,7 +7258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" ht="14.25">
       <c r="B20" s="40" t="s">
         <v>409</v>
       </c>
@@ -7137,7 +7274,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="14.25">
       <c r="B21" s="41" t="s">
         <v>411</v>
       </c>
@@ -7155,7 +7292,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" s="6" customFormat="1" ht="14.25">
       <c r="B22" s="40" t="s">
         <v>414</v>
       </c>
@@ -7169,7 +7306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" s="6" customFormat="1" ht="14.25">
       <c r="B23" s="40" t="s">
         <v>416</v>
       </c>
@@ -7183,7 +7320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" s="6" customFormat="1" ht="14.25">
       <c r="B24" s="40" t="s">
         <v>417</v>
       </c>
@@ -7197,7 +7334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" s="6" customFormat="1" ht="14.25">
       <c r="B25" s="40" t="s">
         <v>418</v>
       </c>
@@ -7211,7 +7348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" s="6" customFormat="1" ht="14.25">
       <c r="B26" s="40" t="s">
         <v>419</v>
       </c>
@@ -7225,7 +7362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" s="6" customFormat="1" ht="14.25">
       <c r="B27" s="58" t="s">
         <v>431</v>
       </c>
@@ -7239,7 +7376,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="14.25">
       <c r="B28" s="40" t="s">
         <v>432</v>
       </c>
@@ -7257,7 +7394,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="14.25">
       <c r="B29" s="40" t="s">
         <v>434</v>
       </c>
@@ -7275,7 +7412,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="14.25">
       <c r="B30" s="40" t="s">
         <v>436</v>
       </c>
@@ -7293,7 +7430,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="14.25">
       <c r="B31" s="40" t="s">
         <v>438</v>
       </c>
@@ -7311,7 +7448,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="14.25">
       <c r="B32" s="40" t="s">
         <v>440</v>
       </c>
@@ -7329,7 +7466,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="14.25">
       <c r="B33" s="45" t="s">
         <v>442</v>
       </c>
@@ -7349,43 +7486,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A32A1D-C531-4190-897D-64A6C5A2D3CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A32A1D-C531-4190-897D-64A6C5A2D3CC}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0" topLeftCell="A2">
+      <selection pane="topLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="6"/>
+    <col min="2" max="2" width="17.5714285714286" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.8571428571429" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.71428571428571" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.2857142857143" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="23.25">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7397,7 +7534,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -7423,7 +7560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="14.25">
       <c r="B5" s="22" t="s">
         <v>60</v>
       </c>
@@ -7439,7 +7576,7 @@
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="14.25">
       <c r="B6" s="49" t="s">
         <v>212</v>
       </c>
@@ -7457,7 +7594,7 @@
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="14.25">
       <c r="B7" s="19" t="s">
         <v>54</v>
       </c>
@@ -7477,7 +7614,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="14.25">
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
@@ -7496,7 +7633,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="21" t="s">
         <v>452</v>
       </c>
@@ -7514,7 +7651,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="14.25">
       <c r="B10" s="20" t="s">
         <v>137</v>
       </c>
@@ -7532,7 +7669,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" ht="14.25">
       <c r="B11" s="19" t="s">
         <v>136</v>
       </c>
@@ -7552,7 +7689,7 @@
       </c>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" ht="14.25">
       <c r="B12" s="20" t="s">
         <v>225</v>
       </c>
@@ -7570,7 +7707,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="14.25">
       <c r="B13" s="19" t="s">
         <v>228</v>
       </c>
@@ -7590,7 +7727,7 @@
       </c>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="14.25">
       <c r="B14" s="21" t="s">
         <v>135</v>
       </c>
@@ -7608,7 +7745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="14.25">
       <c r="B15" s="4" t="s">
         <v>107</v>
       </c>
@@ -7626,7 +7763,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="14.25">
       <c r="B16" s="4" t="s">
         <v>109</v>
       </c>
@@ -7644,7 +7781,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="14.25">
       <c r="B17" s="4" t="s">
         <v>110</v>
       </c>
@@ -7662,7 +7799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="14.25">
       <c r="B18" s="4" t="s">
         <v>457</v>
       </c>
@@ -7680,7 +7817,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="14.25">
       <c r="B19" s="4" t="s">
         <v>111</v>
       </c>
@@ -7698,7 +7835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" ht="14.25">
       <c r="B20" s="4" t="s">
         <v>118</v>
       </c>
@@ -7716,7 +7853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="14.25">
       <c r="B21" s="4" t="s">
         <v>602</v>
       </c>
@@ -7734,7 +7871,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" ht="14.25">
       <c r="B22" s="4" t="s">
         <v>603</v>
       </c>
@@ -7752,7 +7889,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" ht="14.25">
       <c r="B23" s="23" t="s">
         <v>119</v>
       </c>
@@ -7770,7 +7907,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" ht="14.25">
       <c r="B24" s="23" t="s">
         <v>594</v>
       </c>
@@ -7788,7 +7925,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" ht="14.25">
       <c r="B25" s="23" t="s">
         <v>595</v>
       </c>
@@ -7806,7 +7943,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" ht="14.25">
       <c r="B26" s="5" t="s">
         <v>120</v>
       </c>
@@ -7824,7 +7961,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" ht="14.25">
       <c r="B27" s="5" t="s">
         <v>598</v>
       </c>
@@ -7842,7 +7979,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="14.25">
       <c r="B28" s="25" t="s">
         <v>599</v>
       </c>
@@ -7862,42 +7999,42 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" ht="14.25">
       <c r="B29" s="5"/>
       <c r="D29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCA57F-2C3B-4321-9369-CFB854F21DAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCA57F-2C3B-4321-9369-CFB854F21DAA}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B15"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B9" sqref="B9:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="56.1328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="12"/>
+    <col min="2" max="2" width="17.5714285714286" style="12" customWidth="1"/>
+    <col min="3" max="3" width="56.1428571428571" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="12" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5714285714286" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="23.25">
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
@@ -7905,7 +8042,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7917,7 +8054,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -7943,7 +8080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" ht="14.25">
       <c r="B5" s="37" t="s">
         <v>64</v>
       </c>
@@ -7954,7 +8091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="35" t="s">
         <v>67</v>
       </c>
@@ -7965,7 +8102,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="14.25">
       <c r="B7" s="12" t="s">
         <v>198</v>
       </c>
@@ -7984,7 +8121,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="14.25">
       <c r="B8" s="66" t="s">
         <v>218</v>
       </c>
@@ -8006,7 +8143,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="28" t="s">
         <v>140</v>
       </c>
@@ -8020,7 +8157,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="28" t="s">
         <v>142</v>
       </c>
@@ -8034,7 +8171,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="28" t="s">
         <v>145</v>
       </c>
@@ -8048,7 +8185,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" ht="14.25">
       <c r="B12" s="28" t="s">
         <v>147</v>
       </c>
@@ -8062,7 +8199,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" ht="14.25">
       <c r="B13" s="28" t="s">
         <v>635</v>
       </c>
@@ -8076,7 +8213,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" ht="14.25">
       <c r="B14" s="28" t="s">
         <v>638</v>
       </c>
@@ -8090,7 +8227,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" ht="14.25">
       <c r="B15" s="29" t="s">
         <v>150</v>
       </c>
@@ -8110,34 +8247,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E71761-7271-4EB0-B27C-166FB2B8C707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E71761-7271-4EB0-B27C-166FB2B8C707}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.71428571428571" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.2857142857143" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="6"/>
+    <col min="5" max="5" width="85.7142857142857" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.5714285714286" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="23.25">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
@@ -8147,7 +8284,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -8157,7 +8294,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:7" ht="14.65" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -8177,7 +8314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" ht="14.25">
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
@@ -8194,7 +8331,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="6" t="s">
         <v>173</v>
       </c>
@@ -8208,7 +8345,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" ht="14.25">
       <c r="B7" s="6" t="s">
         <v>175</v>
       </c>
@@ -8222,7 +8359,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
         <v>644</v>
       </c>
@@ -8236,7 +8373,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
         <v>177</v>
       </c>
@@ -8250,7 +8387,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
         <v>196</v>
       </c>
@@ -8264,7 +8401,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
         <v>179</v>
       </c>
@@ -8278,7 +8415,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" ht="14.25">
       <c r="B12" s="6" t="s">
         <v>181</v>
       </c>
@@ -8292,7 +8429,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" ht="14.25">
       <c r="B13" s="6" t="s">
         <v>185</v>
       </c>
@@ -8306,7 +8443,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" ht="14.25">
       <c r="B14" s="6" t="s">
         <v>186</v>
       </c>
@@ -8320,7 +8457,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" ht="14.25">
       <c r="B15" s="6" t="s">
         <v>187</v>
       </c>
@@ -8334,7 +8471,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" ht="14.25">
       <c r="B16" s="6" t="s">
         <v>188</v>
       </c>
@@ -8348,7 +8485,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="6" t="s">
         <v>183</v>
       </c>
@@ -8362,7 +8499,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" ht="14.25">
       <c r="B18" s="6" t="s">
         <v>581</v>
       </c>
@@ -8376,7 +8513,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="6" t="s">
         <v>204</v>
       </c>
@@ -8390,7 +8527,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="6" t="s">
         <v>584</v>
       </c>
@@ -8404,7 +8541,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="6" t="s">
         <v>587</v>
       </c>
@@ -8418,7 +8555,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" ht="14.25">
       <c r="B22" s="24" t="s">
         <v>589</v>
       </c>
@@ -8434,7 +8571,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="6" t="s">
         <v>245</v>
       </c>
@@ -8448,7 +8585,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="6" t="s">
         <v>244</v>
       </c>
@@ -8462,7 +8599,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="6" t="s">
         <v>246</v>
       </c>
@@ -8476,7 +8613,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="24" t="s">
         <v>247</v>
       </c>

--- a/Sets-GEO.xlsx
+++ b/Sets-GEO.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6E5CC-06F9-46B7-863E-D75A32CDCE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Legend" sheetId="8" r:id="rId1"/>
-    <sheet name="Proc_Sets_General" sheetId="1" r:id="rId2"/>
-    <sheet name="Proc_Sets_UPS" sheetId="4" r:id="rId3"/>
-    <sheet name="Proc_Sets_PWR" sheetId="2" r:id="rId4"/>
-    <sheet name="Proc_Sets_RSD-SRV" sheetId="5" r:id="rId5"/>
-    <sheet name="Proc_Sets_TRA" sheetId="6" r:id="rId6"/>
-    <sheet name="Proc_Sets_IND-AGR" sheetId="7" r:id="rId7"/>
-    <sheet name="Comm_Sets" sheetId="3" r:id="rId8"/>
+    <sheet name="Legend" sheetId="8" r:id="rId3"/>
+    <sheet name="Proc_Sets_General" sheetId="1" r:id="rId4"/>
+    <sheet name="Proc_Sets_UPS" sheetId="4" r:id="rId5"/>
+    <sheet name="Proc_Sets_PWR" sheetId="2" r:id="rId6"/>
+    <sheet name="Proc_Sets_RSD-SRV" sheetId="5" r:id="rId7"/>
+    <sheet name="Proc_Sets_TRA" sheetId="6" r:id="rId8"/>
+    <sheet name="Proc_Sets_IND-AGR" sheetId="7" r:id="rId9"/>
+    <sheet name="Comm_Sets" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
@@ -1781,7 +1780,7 @@
     <t>TRD-ELC*</t>
   </si>
   <si>
-    <t>U-HP*</t>
+    <t>U-H2P*</t>
   </si>
   <si>
     <t>H2*</t>
@@ -2114,13 +2113,19 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2197,14 +2202,14 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -2213,7 +2218,7 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2255,7 +2260,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
@@ -2296,13 +2301,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2319,13 +2317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.599960029125214"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor theme="9" tint="0.599960029125214"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,7 +2335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2359,7 +2357,42 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -2370,7 +2403,18 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -2385,7 +2429,6 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2394,7 +2437,6 @@
         <color theme="0"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2409,7 +2451,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2422,7 +2463,6 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2437,7 +2477,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2450,7 +2489,6 @@
         <color indexed="22"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2459,7 +2497,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2470,7 +2507,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2481,7 +2517,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2494,7 +2529,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2509,7 +2543,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2524,33 +2557,6 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2565,7 +2571,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2578,7 +2583,6 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2591,7 +2595,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2600,7 +2603,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2611,7 +2613,6 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2622,365 +2623,542 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+  <cellStyleXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+      <protection/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="25" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="34">
-    <cellStyle name="a_Calc_Outputs" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Comma 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Comma 4" xfId="30" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Desc" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+  <cellStyles count="39">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 10 3" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Normal 13" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2 10" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Normal 2 3" xfId="25" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Normal 2 4" xfId="29" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal 2 45" xfId="32" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 3 28" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 3 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 3 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Normal 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 4 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 4 38" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 50" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 50 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 50 7" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normale_Foglio2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Percent 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Percent 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Normal 10 2" xfId="20"/>
+    <cellStyle name="Normale_Foglio2" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="22"/>
+    <cellStyle name="Percent 2" xfId="23"/>
+    <cellStyle name="Normal 50" xfId="24"/>
+    <cellStyle name="Normal 50 7" xfId="25"/>
+    <cellStyle name="Normal 3 28" xfId="26"/>
+    <cellStyle name="Normal 3 3" xfId="27"/>
+    <cellStyle name="Comma 2" xfId="28"/>
+    <cellStyle name="Normal 4 38" xfId="29"/>
+    <cellStyle name="Normal 2 10" xfId="30"/>
+    <cellStyle name="a_Calc_Outputs" xfId="31"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8"/>
+    <cellStyle name="Comma 3" xfId="33"/>
+    <cellStyle name="Normal 3 2" xfId="34"/>
+    <cellStyle name="Percent 2 2" xfId="35"/>
+    <cellStyle name="Normal 3" xfId="36"/>
+    <cellStyle name="Normal 4" xfId="37"/>
+    <cellStyle name="Normal 13" xfId="38"/>
+    <cellStyle name="Normal 2 2" xfId="39"/>
+    <cellStyle name="Normal 4 2" xfId="40"/>
+    <cellStyle name="Normal 10 3" xfId="41"/>
+    <cellStyle name="Hyperlink 2" xfId="42"/>
+    <cellStyle name="Normal 2 2 2" xfId="43"/>
+    <cellStyle name="Normal 2 3" xfId="44"/>
+    <cellStyle name="Normal 3 4" xfId="45"/>
+    <cellStyle name="Comma 2 2" xfId="46"/>
+    <cellStyle name="Percent 3" xfId="47"/>
+    <cellStyle name="Normal 2 4" xfId="48"/>
+    <cellStyle name="Comma 4" xfId="49"/>
+    <cellStyle name="Desc" xfId="50"/>
+    <cellStyle name="Normal 2 45" xfId="51"/>
+    <cellStyle name="Normal 50 2" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2993,7 +3171,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3012,7 +3190,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB0979C-9057-4919-B850-4C370C09333B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7bb0979c-9057-4919-b850-4c370c09333b}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,14 +3199,8 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="4618" t="8934" r="7746" b="12925"/>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="4617" t="8932" r="7745" b="12924"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3038,9 +3210,7 @@
           <a:off x="1057275" y="1619250"/>
           <a:ext cx="1428750" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3063,7 +3233,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4301CA-8DAC-4417-A97A-698F758CF825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7c4301ca-8dac-4417-a97a-698f758cf825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,13 +3242,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3088,9 +3252,7 @@
           <a:off x="2990850" y="1619250"/>
           <a:ext cx="1247775" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3113,7 +3275,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746184ED-E5EC-41BB-989C-625CCA95363D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746184ed-e5ec-41bb-989c-625cca95363d}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,13 +3284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3138,9 +3294,7 @@
           <a:off x="4772025" y="1619250"/>
           <a:ext cx="2019300" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3163,7 +3317,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21C3391-41B7-4FC5-93C8-83F5B121049F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{c21c3391-41b7-4fc5-93c8-83f5b121049f}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3172,14 +3326,8 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1368" t="6564" r="4011" b="6336"/>
+        <a:blip r:embed="rId4"/>
+        <a:srcRect l="1367" t="6562" r="4010" b="6335"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3189,9 +3337,7 @@
           <a:off x="1143000" y="695325"/>
           <a:ext cx="1400175" cy="581025"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3214,7 +3360,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB336379-200F-4243-B626-509F5E20086D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ab336379-200f-4243-b626-509f5e20086d}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,13 +3369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3239,9 +3379,7 @@
           <a:off x="5153025" y="885825"/>
           <a:ext cx="1819275" cy="285750"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3264,22 +3402,16 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C3BDDB-F453-44A8-ABE9-AB628AA7F112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{c4c3bddb-f453-44a8-abe9-ab628aa7f112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3289,9 +3421,7 @@
           <a:off x="2705100" y="504825"/>
           <a:ext cx="2105025" cy="1028700"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -3571,24 +3701,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B86CC-771F-4B39-BBB3-D245A22B5D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B86CC-771F-4B39-BBB3-D245A22B5D71}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="28.265625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="13"/>
+    <col min="1" max="4" width="28.2857142857143" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.7142857142857" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="31.15" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>657</v>
       </c>
@@ -3597,42 +3727,42 @@
       <c r="D1" s="5"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="23.25">
       <c r="A2" s="61"/>
       <c r="B2" s="15"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="23.25">
       <c r="A3" s="61"/>
       <c r="B3" s="15"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="61"/>
       <c r="B4" s="15"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="23.25">
       <c r="A5" s="61"/>
       <c r="B5" s="15"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="23.25">
       <c r="A6" s="61"/>
       <c r="B6" s="15"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="23.25">
       <c r="A7" s="61"/>
       <c r="B7" s="15"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="23.25">
       <c r="A8" s="61"/>
       <c r="B8" s="15"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="14" t="s">
         <v>92</v>
       </c>
@@ -3642,7 +3772,7 @@
       <c r="C9" s="17"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="14" t="s">
         <v>93</v>
       </c>
@@ -3651,7 +3781,7 @@
       </c>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="75" t="s">
         <v>658</v>
       </c>
@@ -3660,13 +3790,13 @@
       </c>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="77"/>
       <c r="B12" s="76" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" s="14" t="s">
         <v>94</v>
       </c>
@@ -3674,7 +3804,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" s="0" customFormat="1" ht="14.25">
       <c r="A14" s="78" t="s">
         <v>661</v>
       </c>
@@ -3684,7 +3814,7 @@
       <c r="C14" s="76"/>
       <c r="D14" s="80"/>
     </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" s="0" customFormat="1" ht="14.25">
       <c r="A15" s="78" t="s">
         <v>662</v>
       </c>
@@ -3694,7 +3824,7 @@
       <c r="C15" s="76"/>
       <c r="D15" s="80"/>
     </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="0" customFormat="1" ht="14.25">
       <c r="A16" s="78" t="s">
         <v>664</v>
       </c>
@@ -3704,7 +3834,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" s="0" customFormat="1" ht="14.25">
       <c r="A17" s="80"/>
       <c r="B17" s="82" t="s">
         <v>666</v>
@@ -3712,17 +3842,17 @@
       <c r="C17" s="83"/>
       <c r="D17" s="83"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>96</v>
       </c>
@@ -3733,7 +3863,7 @@
       <c r="D20" s="23"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="62" t="s">
         <v>229</v>
       </c>
@@ -3743,7 +3873,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="62" t="s">
         <v>230</v>
       </c>
@@ -3754,7 +3884,7 @@
       <c r="D22" s="1"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="62" t="s">
         <v>231</v>
       </c>
@@ -3765,7 +3895,7 @@
       <c r="D23" s="1"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="62" t="s">
         <v>232</v>
       </c>
@@ -3776,7 +3906,7 @@
       <c r="D24" s="1"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="62" t="s">
         <v>233</v>
       </c>
@@ -3787,7 +3917,7 @@
       <c r="D25" s="1"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="62" t="s">
         <v>234</v>
       </c>
@@ -3798,7 +3928,7 @@
       <c r="D26" s="1"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="62" t="s">
         <v>235</v>
       </c>
@@ -3809,15 +3939,15 @@
       <c r="D27" s="1"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" ht="14.25">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" ht="21">
       <c r="A29" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="59" t="s">
         <v>257</v>
       </c>
@@ -3825,7 +3955,7 @@
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="60"/>
       <c r="B31" s="56" t="s">
         <v>258</v>
@@ -3847,48 +3977,48 @@
     <mergeCell ref="B23:D23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B17" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://github.com/MaREI-EPMG/TIMES-GEO"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
   <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59996337778862885"/>
+    <tabColor theme="9" tint="0.599960029125214"/>
   </sheetPr>
   <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="33.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="33.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.2857142857143" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="23.25">
       <c r="B1" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +4030,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -3926,7 +4056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="14.25">
       <c r="B5" s="29" t="s">
         <v>72</v>
       </c>
@@ -3940,130 +4070,130 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" ht="14.25">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" ht="14.25">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="14.25">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" ht="14.25">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" ht="14.25">
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" ht="14.25">
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2" ht="14.25">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:2" ht="14.25">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2" ht="14.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2" ht="14.25">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2" ht="14.25">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" ht="14.25">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" ht="14.25">
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" ht="14.25">
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" ht="14.25">
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" ht="14.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" ht="14.25">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" ht="14.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" ht="14.25">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" ht="14.25">
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" ht="14.25">
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" ht="14.25">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" ht="14.25">
       <c r="B28" s="12"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" ht="14.25">
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" ht="14.25">
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" ht="14.25">
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" ht="14.25">
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:2" ht="14.25">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" ht="14.25">
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:2" ht="14.25">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" ht="14.25">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:2" ht="14.25">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:2" ht="14.25">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" ht="14.25">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" ht="14.25">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:2" ht="14.25">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:2" ht="14.25">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" ht="14.25">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" ht="14.25">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" ht="14.25">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" ht="14.25">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" ht="14.25">
       <c r="B49" s="12"/>
     </row>
   </sheetData>
@@ -4072,38 +4202,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BB74D-895B-4B44-B605-634322E96F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BB74D-895B-4B44-B605-634322E96F6F}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59996337778862885"/>
+    <tabColor theme="9" tint="0.599960029125214"/>
   </sheetPr>
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="13"/>
+    <col min="2" max="2" width="17.5714285714286" style="13" customWidth="1"/>
+    <col min="3" max="3" width="36.5714285714286" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="13" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5714285714286" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="23.25">
       <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -4115,7 +4245,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" ht="14.65" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -4140,8 +4270,9 @@
       <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" ht="14.25">
       <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
@@ -4155,7 +4286,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="13" t="s">
         <v>202</v>
       </c>
@@ -4169,7 +4300,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" ht="14.25">
       <c r="B7" s="13" t="s">
         <v>260</v>
       </c>
@@ -4180,7 +4311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="13" t="s">
         <v>121</v>
       </c>
@@ -4191,7 +4322,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="13" t="s">
         <v>559</v>
       </c>
@@ -4204,11 +4335,13 @@
       <c r="E9" s="13" t="s">
         <v>564</v>
       </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" ht="14.25">
       <c r="B10" s="13" t="s">
         <v>566</v>
       </c>
@@ -4225,7 +4358,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" ht="14.25">
       <c r="B11" s="13" t="s">
         <v>569</v>
       </c>
@@ -4242,7 +4375,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="13" t="s">
         <v>571</v>
       </c>
@@ -4259,7 +4392,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="14.25">
       <c r="B13" s="52" t="s">
         <v>207</v>
       </c>
@@ -4275,7 +4408,7 @@
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="14.25">
       <c r="B14" s="39" t="s">
         <v>218</v>
       </c>
@@ -4291,7 +4424,7 @@
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" ht="14.25">
       <c r="B15" s="69" t="s">
         <v>265</v>
       </c>
@@ -4309,7 +4442,7 @@
       <c r="H15" s="69"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" ht="14.25">
       <c r="B16" s="30" t="s">
         <v>561</v>
       </c>
@@ -4329,43 +4462,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F47B-2C2A-48ED-B8E9-A3DABC0C44F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F47B-2C2A-48ED-B8E9-A3DABC0C44F6}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59996337778862885"/>
+    <tabColor theme="9" tint="0.599960029125214"/>
   </sheetPr>
   <dimension ref="B1:I128"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="33.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.265625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="19"/>
+    <col min="2" max="2" width="17.5714285714286" style="19" customWidth="1"/>
+    <col min="3" max="3" width="33.1428571428571" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.2857142857143" style="19" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="19" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.5714285714286" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5714285714286" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="23.25">
       <c r="B1" s="8" t="s">
         <v>491</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4510,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -4403,7 +4536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="14.25">
       <c r="B5" s="32" t="s">
         <v>30</v>
       </c>
@@ -4419,7 +4552,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="14.25">
       <c r="B6" s="34" t="s">
         <v>124</v>
       </c>
@@ -4439,7 +4572,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="14.25">
       <c r="B7" s="34" t="s">
         <v>125</v>
       </c>
@@ -4459,7 +4592,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="14.25">
       <c r="B8" s="34" t="s">
         <v>271</v>
       </c>
@@ -4479,7 +4612,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" ht="14.25">
       <c r="B9" s="35" t="s">
         <v>126</v>
       </c>
@@ -4501,7 +4634,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" ht="14.25">
       <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
@@ -4521,7 +4654,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" ht="14.25">
       <c r="B11" s="34" t="s">
         <v>613</v>
       </c>
@@ -4541,7 +4674,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" ht="14.25">
       <c r="B12" s="34" t="s">
         <v>20</v>
       </c>
@@ -4561,7 +4694,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="14.25">
       <c r="B13" s="34" t="s">
         <v>614</v>
       </c>
@@ -4581,7 +4714,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="14.25">
       <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
@@ -4598,7 +4731,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" ht="14.25">
       <c r="B15" s="34" t="s">
         <v>26</v>
       </c>
@@ -4615,7 +4748,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" ht="14.25">
       <c r="B16" s="34" t="s">
         <v>154</v>
       </c>
@@ -4632,7 +4765,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="14.25">
       <c r="B17" s="37" t="s">
         <v>157</v>
       </c>
@@ -4652,7 +4785,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="14.25">
       <c r="B18" s="37" t="s">
         <v>160</v>
       </c>
@@ -4672,7 +4805,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="14.25">
       <c r="B19" s="38" t="s">
         <v>155</v>
       </c>
@@ -4689,7 +4822,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="14.25">
       <c r="B20" s="38" t="s">
         <v>164</v>
       </c>
@@ -4709,7 +4842,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="14.25">
       <c r="B21" s="38" t="s">
         <v>165</v>
       </c>
@@ -4729,7 +4862,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="14.25">
       <c r="B22" s="37" t="s">
         <v>463</v>
       </c>
@@ -4746,7 +4879,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="14.25">
       <c r="B23" s="37" t="s">
         <v>464</v>
       </c>
@@ -4766,7 +4899,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="14.25">
       <c r="B24" s="37" t="s">
         <v>465</v>
       </c>
@@ -4786,7 +4919,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="14.25">
       <c r="B25" s="37" t="s">
         <v>466</v>
       </c>
@@ -4803,7 +4936,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="14.25">
       <c r="B26" s="34" t="s">
         <v>24</v>
       </c>
@@ -4823,7 +4956,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="14.25">
       <c r="B27" s="34" t="s">
         <v>617</v>
       </c>
@@ -4843,7 +4976,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="14.25">
       <c r="B28" s="34" t="s">
         <v>470</v>
       </c>
@@ -4863,7 +4996,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="14.25">
       <c r="B29" s="34" t="s">
         <v>619</v>
       </c>
@@ -4883,7 +5016,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="14.25">
       <c r="B30" s="34" t="s">
         <v>473</v>
       </c>
@@ -4900,7 +5033,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="14.25">
       <c r="B31" s="34" t="s">
         <v>469</v>
       </c>
@@ -4917,7 +5050,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="14.25">
       <c r="B32" s="35" t="s">
         <v>33</v>
       </c>
@@ -4937,7 +5070,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="14.25">
       <c r="B33" s="39" t="s">
         <v>209</v>
       </c>
@@ -4961,7 +5094,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="14.25">
       <c r="B34" s="34" t="s">
         <v>514</v>
       </c>
@@ -4978,7 +5111,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="14.25">
       <c r="B35" s="34" t="s">
         <v>515</v>
       </c>
@@ -4995,7 +5128,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>516</v>
       </c>
@@ -5012,7 +5145,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="14.25">
       <c r="B37" s="34" t="s">
         <v>517</v>
       </c>
@@ -5029,7 +5162,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="14.25">
       <c r="B38" s="34" t="s">
         <v>519</v>
       </c>
@@ -5046,7 +5179,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="34" t="s">
         <v>520</v>
       </c>
@@ -5063,7 +5196,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="14.25">
       <c r="B40" s="34" t="s">
         <v>521</v>
       </c>
@@ -5080,7 +5213,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="14.25">
       <c r="B41" s="34" t="s">
         <v>522</v>
       </c>
@@ -5097,7 +5230,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="14.25">
       <c r="B42" s="41" t="s">
         <v>523</v>
       </c>
@@ -5114,7 +5247,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="14.25">
       <c r="B43" s="41" t="s">
         <v>524</v>
       </c>
@@ -5131,7 +5264,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="14.25">
       <c r="B44" s="35" t="s">
         <v>518</v>
       </c>
@@ -5151,7 +5284,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" ht="14.25">
       <c r="B45" s="19" t="s">
         <v>668</v>
       </c>
@@ -5165,12 +5298,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" ht="23.25">
       <c r="B47" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="14.25">
       <c r="B48" s="9" t="s">
         <v>0</v>
       </c>
@@ -5182,7 +5315,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:9" ht="14.65" thickBot="1">
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
@@ -5208,7 +5341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="14.25">
       <c r="B50" s="34" t="s">
         <v>280</v>
       </c>
@@ -5228,7 +5361,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="14.25">
       <c r="B51" s="34" t="s">
         <v>281</v>
       </c>
@@ -5248,7 +5381,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="14.25">
       <c r="B52" s="34" t="s">
         <v>282</v>
       </c>
@@ -5268,7 +5401,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="14.25">
       <c r="B53" s="35" t="s">
         <v>283</v>
       </c>
@@ -5290,7 +5423,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="14.25">
       <c r="B54" s="34" t="s">
         <v>289</v>
       </c>
@@ -5310,7 +5443,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="14.25">
       <c r="B55" s="34" t="s">
         <v>623</v>
       </c>
@@ -5330,7 +5463,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="14.25">
       <c r="B56" s="34" t="s">
         <v>290</v>
       </c>
@@ -5350,7 +5483,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="14.25">
       <c r="B57" s="34" t="s">
         <v>625</v>
       </c>
@@ -5370,7 +5503,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="14.25">
       <c r="B58" s="34" t="s">
         <v>291</v>
       </c>
@@ -5390,7 +5523,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="14.25">
       <c r="B59" s="34" t="s">
         <v>292</v>
       </c>
@@ -5410,7 +5543,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="14.25">
       <c r="B60" s="34" t="s">
         <v>293</v>
       </c>
@@ -5430,7 +5563,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="14.25">
       <c r="B61" s="37" t="s">
         <v>294</v>
       </c>
@@ -5450,7 +5583,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="14.25">
       <c r="B62" s="37" t="s">
         <v>295</v>
       </c>
@@ -5470,7 +5603,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="14.25">
       <c r="B63" s="38" t="s">
         <v>296</v>
       </c>
@@ -5490,7 +5623,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="14.25">
       <c r="B64" s="38" t="s">
         <v>297</v>
       </c>
@@ -5510,7 +5643,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="14.25">
       <c r="B65" s="38" t="s">
         <v>298</v>
       </c>
@@ -5530,7 +5663,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="14.25">
       <c r="B66" s="37" t="s">
         <v>656</v>
       </c>
@@ -5550,7 +5683,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="14.25">
       <c r="B67" s="37" t="s">
         <v>654</v>
       </c>
@@ -5570,7 +5703,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="14.25">
       <c r="B68" s="37" t="s">
         <v>655</v>
       </c>
@@ -5590,7 +5723,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="14.25">
       <c r="B69" s="37" t="s">
         <v>478</v>
       </c>
@@ -5610,7 +5743,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="14.25">
       <c r="B70" s="34" t="s">
         <v>299</v>
       </c>
@@ -5630,7 +5763,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="14.25">
       <c r="B71" s="34" t="s">
         <v>627</v>
       </c>
@@ -5650,7 +5783,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="14.25">
       <c r="B72" s="34" t="s">
         <v>480</v>
       </c>
@@ -5670,7 +5803,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="14.25">
       <c r="B73" s="34" t="s">
         <v>628</v>
       </c>
@@ -5690,7 +5823,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="14.25">
       <c r="B74" s="34" t="s">
         <v>481</v>
       </c>
@@ -5710,7 +5843,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="14.25">
       <c r="B75" s="34" t="s">
         <v>477</v>
       </c>
@@ -5730,7 +5863,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="14.25">
       <c r="B76" s="35" t="s">
         <v>300</v>
       </c>
@@ -5752,7 +5885,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="14.25">
       <c r="B77" s="39" t="s">
         <v>301</v>
       </c>
@@ -5776,7 +5909,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="14.25">
       <c r="B78" s="34" t="s">
         <v>492</v>
       </c>
@@ -5796,7 +5929,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="14.25">
       <c r="B79" s="34" t="s">
         <v>493</v>
       </c>
@@ -5816,7 +5949,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="14.25">
       <c r="B80" s="34" t="s">
         <v>494</v>
       </c>
@@ -5836,7 +5969,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="14.25">
       <c r="B81" s="34" t="s">
         <v>495</v>
       </c>
@@ -5856,7 +5989,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="14.25">
       <c r="B82" s="34" t="s">
         <v>497</v>
       </c>
@@ -5876,7 +6009,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="14.25">
       <c r="B83" s="34" t="s">
         <v>498</v>
       </c>
@@ -5896,7 +6029,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="14.25">
       <c r="B84" s="34" t="s">
         <v>499</v>
       </c>
@@ -5916,7 +6049,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="14.25">
       <c r="B85" s="34" t="s">
         <v>500</v>
       </c>
@@ -5936,7 +6069,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="14.25">
       <c r="B86" s="41" t="s">
         <v>501</v>
       </c>
@@ -5956,7 +6089,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="14.25">
       <c r="B87" s="41" t="s">
         <v>502</v>
       </c>
@@ -5976,7 +6109,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="14.25">
       <c r="B88" s="35" t="s">
         <v>496</v>
       </c>
@@ -5998,15 +6131,15 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:2" ht="14.25">
       <c r="B89" s="41"/>
     </row>
-    <row r="91" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:2" ht="23.25">
       <c r="B91" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="14.25">
       <c r="B92" s="9" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6151,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:9" ht="14.65" thickBot="1">
       <c r="B93" s="10" t="s">
         <v>1</v>
       </c>
@@ -6044,7 +6177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="14.25">
       <c r="B94" s="34" t="s">
         <v>332</v>
       </c>
@@ -6064,7 +6197,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="14.25">
       <c r="B95" s="34" t="s">
         <v>333</v>
       </c>
@@ -6084,7 +6217,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="14.25">
       <c r="B96" s="34" t="s">
         <v>334</v>
       </c>
@@ -6104,7 +6237,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="14.25">
       <c r="B97" s="35" t="s">
         <v>335</v>
       </c>
@@ -6126,7 +6259,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="14.25">
       <c r="B98" s="34" t="s">
         <v>336</v>
       </c>
@@ -6146,7 +6279,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="14.25">
       <c r="B99" s="34" t="s">
         <v>337</v>
       </c>
@@ -6166,7 +6299,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="14.25">
       <c r="B100" s="34" t="s">
         <v>338</v>
       </c>
@@ -6186,7 +6319,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="14.25">
       <c r="B101" s="34" t="s">
         <v>339</v>
       </c>
@@ -6206,7 +6339,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="14.25">
       <c r="B102" s="34" t="s">
         <v>340</v>
       </c>
@@ -6226,7 +6359,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="14.25">
       <c r="B103" s="37" t="s">
         <v>341</v>
       </c>
@@ -6246,7 +6379,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="14.25">
       <c r="B104" s="37" t="s">
         <v>342</v>
       </c>
@@ -6266,7 +6399,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="14.25">
       <c r="B105" s="38" t="s">
         <v>343</v>
       </c>
@@ -6286,7 +6419,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="14.25">
       <c r="B106" s="38" t="s">
         <v>344</v>
       </c>
@@ -6306,7 +6439,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="14.25">
       <c r="B107" s="38" t="s">
         <v>345</v>
       </c>
@@ -6326,7 +6459,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="14.25">
       <c r="B108" s="37" t="s">
         <v>651</v>
       </c>
@@ -6346,7 +6479,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="14.25">
       <c r="B109" s="37" t="s">
         <v>652</v>
       </c>
@@ -6366,7 +6499,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="14.25">
       <c r="B110" s="37" t="s">
         <v>653</v>
       </c>
@@ -6386,7 +6519,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="14.25">
       <c r="B111" s="37" t="s">
         <v>485</v>
       </c>
@@ -6406,7 +6539,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="14.25">
       <c r="B112" s="34" t="s">
         <v>346</v>
       </c>
@@ -6426,7 +6559,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="14.25">
       <c r="B113" s="34" t="s">
         <v>487</v>
       </c>
@@ -6446,7 +6579,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="14.25">
       <c r="B114" s="34" t="s">
         <v>488</v>
       </c>
@@ -6466,7 +6599,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="14.25">
       <c r="B115" s="34" t="s">
         <v>479</v>
       </c>
@@ -6486,7 +6619,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="14.25">
       <c r="B116" s="35" t="s">
         <v>347</v>
       </c>
@@ -6508,7 +6641,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="14.25">
       <c r="B117" s="39" t="s">
         <v>348</v>
       </c>
@@ -6532,7 +6665,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="14.25">
       <c r="B118" s="34" t="s">
         <v>526</v>
       </c>
@@ -6552,7 +6685,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="14.25">
       <c r="B119" s="34" t="s">
         <v>527</v>
       </c>
@@ -6572,7 +6705,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="14.25">
       <c r="B120" s="34" t="s">
         <v>528</v>
       </c>
@@ -6592,7 +6725,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="14.25">
       <c r="B121" s="34" t="s">
         <v>529</v>
       </c>
@@ -6612,7 +6745,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="14.25">
       <c r="B122" s="34" t="s">
         <v>530</v>
       </c>
@@ -6632,7 +6765,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="14.25">
       <c r="B123" s="34" t="s">
         <v>531</v>
       </c>
@@ -6652,7 +6785,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="14.25">
       <c r="B124" s="34" t="s">
         <v>532</v>
       </c>
@@ -6672,7 +6805,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="14.25">
       <c r="B125" s="34" t="s">
         <v>533</v>
       </c>
@@ -6692,7 +6825,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="14.25">
       <c r="B126" s="41" t="s">
         <v>534</v>
       </c>
@@ -6712,7 +6845,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="14.25">
       <c r="B127" s="41" t="s">
         <v>535</v>
       </c>
@@ -6732,7 +6865,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="14.25">
       <c r="B128" s="35" t="s">
         <v>536</v>
       </c>
@@ -6756,35 +6889,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DD5C6-DFE1-4B3C-9400-DAD545AE00E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DD5C6-DFE1-4B3C-9400-DAD545AE00E2}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59996337778862885"/>
+    <tabColor theme="9" tint="0.599960029125214"/>
   </sheetPr>
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="59.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.86328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.86328125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="19"/>
+    <col min="2" max="2" width="17.5714285714286" style="19" customWidth="1"/>
+    <col min="3" max="3" width="59.1428571428571" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.8571428571429" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.8571428571429" style="19" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="23.25">
       <c r="B1" s="8" t="s">
         <v>78</v>
       </c>
@@ -6792,7 +6925,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -6804,7 +6937,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -6830,7 +6963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" ht="14.25">
       <c r="B5" s="37" t="s">
         <v>47</v>
       </c>
@@ -6841,7 +6974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="14.25">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -6857,7 +6990,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="14.25">
       <c r="B7" s="44" t="s">
         <v>46</v>
       </c>
@@ -6877,7 +7010,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="14.25">
       <c r="B8" s="49" t="s">
         <v>82</v>
       </c>
@@ -6897,7 +7030,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" ht="14.25">
       <c r="B9" s="46" t="s">
         <v>386</v>
       </c>
@@ -6915,7 +7048,7 @@
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" ht="14.25">
       <c r="B10" s="46" t="s">
         <v>389</v>
       </c>
@@ -6933,7 +7066,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" ht="14.25">
       <c r="B11" s="46" t="s">
         <v>83</v>
       </c>
@@ -6951,7 +7084,7 @@
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" ht="14.25">
       <c r="B12" s="46" t="s">
         <v>84</v>
       </c>
@@ -6969,7 +7102,7 @@
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="14.25">
       <c r="B13" s="46" t="s">
         <v>85</v>
       </c>
@@ -6987,7 +7120,7 @@
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" ht="14.25">
       <c r="B14" s="46" t="s">
         <v>395</v>
       </c>
@@ -7005,7 +7138,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" ht="14.25">
       <c r="B15" s="46" t="s">
         <v>401</v>
       </c>
@@ -7021,7 +7154,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="14.25">
       <c r="B16" s="46" t="s">
         <v>403</v>
       </c>
@@ -7037,7 +7170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" ht="14.25">
       <c r="B17" s="46" t="s">
         <v>86</v>
       </c>
@@ -7053,7 +7186,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" ht="14.25">
       <c r="B18" s="46" t="s">
         <v>87</v>
       </c>
@@ -7069,7 +7202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" ht="14.25">
       <c r="B19" s="46" t="s">
         <v>88</v>
       </c>
@@ -7085,7 +7218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" ht="14.25">
       <c r="B20" s="46" t="s">
         <v>408</v>
       </c>
@@ -7101,7 +7234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="14.25">
       <c r="B21" s="47" t="s">
         <v>410</v>
       </c>
@@ -7119,7 +7252,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" s="13" customFormat="1" ht="14.25">
       <c r="B22" s="46" t="s">
         <v>413</v>
       </c>
@@ -7133,7 +7266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" s="13" customFormat="1" ht="14.25">
       <c r="B23" s="46" t="s">
         <v>415</v>
       </c>
@@ -7147,7 +7280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" s="13" customFormat="1" ht="14.25">
       <c r="B24" s="46" t="s">
         <v>416</v>
       </c>
@@ -7161,7 +7294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" s="13" customFormat="1" ht="14.25">
       <c r="B25" s="46" t="s">
         <v>417</v>
       </c>
@@ -7175,7 +7308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" s="13" customFormat="1" ht="14.25">
       <c r="B26" s="46" t="s">
         <v>418</v>
       </c>
@@ -7189,7 +7322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" s="13" customFormat="1" ht="14.25">
       <c r="B27" s="64" t="s">
         <v>430</v>
       </c>
@@ -7203,7 +7336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="14.25">
       <c r="B28" s="46" t="s">
         <v>431</v>
       </c>
@@ -7221,7 +7354,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="14.25">
       <c r="B29" s="46" t="s">
         <v>433</v>
       </c>
@@ -7239,7 +7372,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="14.25">
       <c r="B30" s="46" t="s">
         <v>435</v>
       </c>
@@ -7257,7 +7390,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="14.25">
       <c r="B31" s="46" t="s">
         <v>437</v>
       </c>
@@ -7275,7 +7408,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="14.25">
       <c r="B32" s="46" t="s">
         <v>439</v>
       </c>
@@ -7293,7 +7426,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="14.25">
       <c r="B33" s="51" t="s">
         <v>441</v>
       </c>
@@ -7313,43 +7446,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A32A1D-C531-4190-897D-64A6C5A2D3CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A32A1D-C531-4190-897D-64A6C5A2D3CC}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59996337778862885"/>
+    <tabColor theme="9" tint="0.599960029125214"/>
   </sheetPr>
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0" topLeftCell="A2">
+      <selection pane="topLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="13"/>
+    <col min="2" max="2" width="17.5714285714286" style="13" customWidth="1"/>
+    <col min="3" max="3" width="42.8571428571429" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.71428571428571" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.2857142857143" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="23.25">
       <c r="B1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -7361,7 +7494,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -7387,7 +7520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" ht="14.25">
       <c r="B5" s="28" t="s">
         <v>60</v>
       </c>
@@ -7403,7 +7536,7 @@
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" ht="14.25">
       <c r="B6" s="55" t="s">
         <v>211</v>
       </c>
@@ -7421,7 +7554,7 @@
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="14.25">
       <c r="B7" s="26" t="s">
         <v>54</v>
       </c>
@@ -7441,7 +7574,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="14.25">
       <c r="B8" s="27" t="s">
         <v>56</v>
       </c>
@@ -7460,7 +7593,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="27" t="s">
         <v>451</v>
       </c>
@@ -7478,7 +7611,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="14.25">
       <c r="B10" s="11" t="s">
         <v>137</v>
       </c>
@@ -7496,7 +7629,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" ht="14.25">
       <c r="B11" s="26" t="s">
         <v>136</v>
       </c>
@@ -7516,7 +7649,7 @@
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" ht="14.25">
       <c r="B12" s="11" t="s">
         <v>224</v>
       </c>
@@ -7534,7 +7667,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" ht="14.25">
       <c r="B13" s="26" t="s">
         <v>227</v>
       </c>
@@ -7554,7 +7687,7 @@
       </c>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="14.25">
       <c r="B14" s="27" t="s">
         <v>135</v>
       </c>
@@ -7572,7 +7705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="14.25">
       <c r="B15" s="11" t="s">
         <v>107</v>
       </c>
@@ -7590,7 +7723,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="14.25">
       <c r="B16" s="11" t="s">
         <v>109</v>
       </c>
@@ -7608,7 +7741,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="14.25">
       <c r="B17" s="11" t="s">
         <v>110</v>
       </c>
@@ -7626,7 +7759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="14.25">
       <c r="B18" s="11" t="s">
         <v>456</v>
       </c>
@@ -7644,7 +7777,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="14.25">
       <c r="B19" s="11" t="s">
         <v>111</v>
       </c>
@@ -7662,7 +7795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" ht="14.25">
       <c r="B20" s="11" t="s">
         <v>118</v>
       </c>
@@ -7680,7 +7813,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="14.25">
       <c r="B21" s="11" t="s">
         <v>601</v>
       </c>
@@ -7698,7 +7831,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" ht="14.25">
       <c r="B22" s="11" t="s">
         <v>602</v>
       </c>
@@ -7716,7 +7849,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" ht="14.25">
       <c r="B23" s="29" t="s">
         <v>119</v>
       </c>
@@ -7734,7 +7867,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" ht="14.25">
       <c r="B24" s="29" t="s">
         <v>593</v>
       </c>
@@ -7752,7 +7885,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" ht="14.25">
       <c r="B25" s="29" t="s">
         <v>594</v>
       </c>
@@ -7770,7 +7903,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" ht="14.25">
       <c r="B26" s="12" t="s">
         <v>120</v>
       </c>
@@ -7788,7 +7921,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" ht="14.25">
       <c r="B27" s="12" t="s">
         <v>597</v>
       </c>
@@ -7806,7 +7939,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="14.25">
       <c r="B28" s="31" t="s">
         <v>598</v>
       </c>
@@ -7826,42 +7959,42 @@
       </c>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" ht="14.25">
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCA57F-2C3B-4321-9369-CFB854F21DAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCA57F-2C3B-4321-9369-CFB854F21DAA}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59996337778862885"/>
+    <tabColor theme="9" tint="0.599960029125214"/>
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B15"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B9" sqref="B9:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="56.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="19"/>
+    <col min="2" max="2" width="17.5714285714286" style="19" customWidth="1"/>
+    <col min="3" max="3" width="56.1428571428571" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" style="19" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="19" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8571428571429" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5714285714286" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.5714285714286" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="23.25">
       <c r="B1" s="8" t="s">
         <v>63</v>
       </c>
@@ -7869,7 +8002,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="14.25">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -7881,7 +8014,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -7907,7 +8040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5" ht="14.25">
       <c r="B5" s="43" t="s">
         <v>64</v>
       </c>
@@ -7918,7 +8051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="41" t="s">
         <v>67</v>
       </c>
@@ -7929,7 +8062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="14.25">
       <c r="B7" s="19" t="s">
         <v>198</v>
       </c>
@@ -7948,7 +8081,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="14.25">
       <c r="B8" s="72" t="s">
         <v>217</v>
       </c>
@@ -7970,7 +8103,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="34" t="s">
         <v>140</v>
       </c>
@@ -7984,7 +8117,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="34" t="s">
         <v>142</v>
       </c>
@@ -7998,7 +8131,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="34" t="s">
         <v>145</v>
       </c>
@@ -8012,7 +8145,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" ht="14.25">
       <c r="B12" s="34" t="s">
         <v>147</v>
       </c>
@@ -8026,7 +8159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" ht="14.25">
       <c r="B13" s="34" t="s">
         <v>634</v>
       </c>
@@ -8040,7 +8173,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" ht="14.25">
       <c r="B14" s="34" t="s">
         <v>637</v>
       </c>
@@ -8054,7 +8187,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" ht="14.25">
       <c r="B15" s="35" t="s">
         <v>150</v>
       </c>
@@ -8074,34 +8207,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E71761-7271-4EB0-B27C-166FB2B8C707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E71761-7271-4EB0-B27C-166FB2B8C707}">
   <sheetPr>
-    <tabColor theme="9" tint="0.59996337778862885"/>
+    <tabColor theme="9" tint="0.599960029125214"/>
   </sheetPr>
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25.265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.71428571428571" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25.2857142857143" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="13"/>
+    <col min="5" max="5" width="85.7142857142857" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.5714285714286" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="23.25">
       <c r="B1" s="8" t="s">
         <v>100</v>
       </c>
@@ -8111,7 +8244,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="14.25">
       <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
@@ -8121,7 +8254,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:7" ht="14.65" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -8141,7 +8274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" ht="14.25">
       <c r="B5" s="13" t="s">
         <v>42</v>
       </c>
@@ -8158,7 +8291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="13" t="s">
         <v>173</v>
       </c>
@@ -8172,7 +8305,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" ht="14.25">
       <c r="B7" s="13" t="s">
         <v>175</v>
       </c>
@@ -8186,7 +8319,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="13" t="s">
         <v>643</v>
       </c>
@@ -8200,7 +8333,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="13" t="s">
         <v>177</v>
       </c>
@@ -8214,7 +8347,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="13" t="s">
         <v>196</v>
       </c>
@@ -8228,7 +8361,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="13" t="s">
         <v>179</v>
       </c>
@@ -8242,7 +8375,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5" ht="14.25">
       <c r="B12" s="13" t="s">
         <v>181</v>
       </c>
@@ -8256,7 +8389,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5" ht="14.25">
       <c r="B13" s="13" t="s">
         <v>185</v>
       </c>
@@ -8270,7 +8403,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:5" ht="14.25">
       <c r="B14" s="13" t="s">
         <v>186</v>
       </c>
@@ -8284,7 +8417,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5" ht="14.25">
       <c r="B15" s="13" t="s">
         <v>187</v>
       </c>
@@ -8298,7 +8431,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" ht="14.25">
       <c r="B16" s="13" t="s">
         <v>188</v>
       </c>
@@ -8312,7 +8445,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="13" t="s">
         <v>183</v>
       </c>
@@ -8326,7 +8459,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" ht="14.25">
       <c r="B18" s="13" t="s">
         <v>580</v>
       </c>
@@ -8340,7 +8473,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="13" t="s">
         <v>203</v>
       </c>
@@ -8354,7 +8487,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="13" t="s">
         <v>583</v>
       </c>
@@ -8368,7 +8501,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="13" t="s">
         <v>586</v>
       </c>
@@ -8382,7 +8515,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" ht="14.25">
       <c r="B22" s="30" t="s">
         <v>588</v>
       </c>
@@ -8398,7 +8531,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="13" t="s">
         <v>244</v>
       </c>
@@ -8412,7 +8545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="13" t="s">
         <v>243</v>
       </c>
@@ -8426,7 +8559,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="13" t="s">
         <v>245</v>
       </c>
@@ -8440,7 +8573,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="30" t="s">
         <v>246</v>
       </c>

--- a/Sets-GEO.xlsx
+++ b/Sets-GEO.xlsx
@@ -1474,7 +1474,7 @@
     <t>Industry technologies</t>
   </si>
   <si>
-    <t>OIL*, *OIL, *AVF, *DSL, *HFO, *GSL, *KER, *LPG, *NAP, OILOTH, *RFG, *PCK, *OPP, OILCOK, -BIO*,</t>
+    <t>OIL*, *OIL, *AVF, *DSL, *HFO, *GSL, *KER, *LPG, *NAP, OILOTH, *RFG, *PCK, *OPP, OILCOK, -BIO*,RSVOIL*</t>
   </si>
   <si>
     <t>P_WIN</t>
@@ -1861,10 +1861,10 @@
     <t>NSPEC, *OTH</t>
   </si>
   <si>
-    <t>GAS*,*GAS, *LNG*, *BFG, *GWG, GASCOK, -BIO*</t>
-  </si>
-  <si>
-    <t>COA*, *COA, *LIG, *COK, *COG, *COL, *COH, -GASCOK</t>
+    <t>GAS*,*GAS, *LNG*, *BFG, *GWG, GASCOK, -BIO*,RSVGAS*,RSVLNG*</t>
+  </si>
+  <si>
+    <t>COA*, *COA, *LIG, *COK, *COG, *COL, *COH, -GASCOK,RSVCOA*</t>
   </si>
   <si>
     <t>T-AVD</t>
@@ -1987,7 +1987,7 @@
     <t>P-C-*CCS*</t>
   </si>
   <si>
-    <t>BIO*, *BIO, *BDL, *BKR, *ETH, *RWS, *BGS, *BGL, *BLQ</t>
+    <t>BIO*, *BIO, *BDL, *BKR, *ETH, *RWS, *BGS, *BGL, *BLQ,RSVBIO*</t>
   </si>
   <si>
     <t>I-PP</t>
@@ -3200,7 +3200,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="4617" t="8932" r="7745" b="12924"/>
+        <a:srcRect l="4611" t="8926" r="7739" b="12918"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3327,7 +3327,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId4"/>
-        <a:srcRect l="1367" t="6562" r="4010" b="6335"/>
+        <a:srcRect l="1361" t="6556" r="4003" b="6329"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4335,8 +4335,6 @@
       <c r="E9" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
         <v>565</v>
       </c>
@@ -8216,7 +8214,7 @@
   <sheetPr>
     <tabColor theme="9" tint="0.599960029125214"/>
   </sheetPr>
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E15" sqref="E15"/>
@@ -8254,7 +8252,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="2:7" ht="14.65" thickBot="1">
+    <row r="4" spans="2:8" ht="14.65" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -8273,6 +8271,7 @@
       <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:7" ht="14.25">
       <c r="B5" s="13" t="s">
@@ -8291,7 +8290,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.25">
+    <row r="6" spans="2:6" ht="14.25">
       <c r="B6" s="13" t="s">
         <v>173</v>
       </c>
@@ -8304,6 +8303,7 @@
       <c r="E6" s="13" t="s">
         <v>592</v>
       </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:5" ht="14.25">
       <c r="B7" s="13" t="s">

--- a/Sets-GEO.xlsx
+++ b/Sets-GEO.xlsx
@@ -1834,7 +1834,7 @@
     <t>Waste</t>
   </si>
   <si>
-    <t>*WAS*, -BIOWAS</t>
+    <t>*WAS*,RSVWSN, -BIOWAS</t>
   </si>
   <si>
     <t>ALLH2</t>
@@ -3200,7 +3200,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="4611" t="8926" r="7739" b="12918"/>
+        <a:srcRect l="4609" t="8924" r="7737" b="12916"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3327,7 +3327,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId4"/>
-        <a:srcRect l="1361" t="6556" r="4003" b="6329"/>
+        <a:srcRect l="1359" t="6555" r="4002" b="6327"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8290,7 +8290,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.25">
+    <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="13" t="s">
         <v>173</v>
       </c>
@@ -8303,7 +8303,6 @@
       <c r="E6" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:5" ht="14.25">
       <c r="B7" s="13" t="s">
@@ -8459,7 +8458,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="14.25">
+    <row r="18" spans="2:6" ht="14.25">
       <c r="B18" s="13" t="s">
         <v>580</v>
       </c>
@@ -8472,6 +8471,7 @@
       <c r="E18" s="13" t="s">
         <v>582</v>
       </c>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="13" t="s">

--- a/Sets-GEO.xlsx
+++ b/Sets-GEO.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C123DABC-81AA-4115-8B0B-312B6497091C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Legend" sheetId="8" r:id="rId3"/>
-    <sheet name="Proc_Sets_General" sheetId="1" r:id="rId4"/>
-    <sheet name="Proc_Sets_UPS" sheetId="4" r:id="rId5"/>
-    <sheet name="Proc_Sets_PWR" sheetId="2" r:id="rId6"/>
-    <sheet name="Proc_Sets_RSD-SRV" sheetId="5" r:id="rId7"/>
-    <sheet name="Proc_Sets_TRA" sheetId="6" r:id="rId8"/>
-    <sheet name="Proc_Sets_IND-AGR" sheetId="7" r:id="rId9"/>
-    <sheet name="Comm_Sets" sheetId="3" r:id="rId10"/>
+    <sheet name="Legend" sheetId="8" r:id="rId1"/>
+    <sheet name="Proc_Sets_General" sheetId="1" r:id="rId2"/>
+    <sheet name="Proc_Sets_UPS" sheetId="4" r:id="rId3"/>
+    <sheet name="Proc_Sets_PWR" sheetId="2" r:id="rId4"/>
+    <sheet name="Proc_Sets_RSD-SRV" sheetId="5" r:id="rId5"/>
+    <sheet name="Proc_Sets_TRA" sheetId="6" r:id="rId6"/>
+    <sheet name="Proc_Sets_IND-AGR" sheetId="7" r:id="rId7"/>
+    <sheet name="Comm_Sets" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="673">
   <si>
     <t>~TFM_PSets</t>
   </si>
@@ -2101,7 +2102,10 @@
     <t>STS,STG</t>
   </si>
   <si>
-    <t>MIN*</t>
+    <t>PRE,IRE</t>
+  </si>
+  <si>
+    <t>MIN*,IMP-NUC</t>
   </si>
 </sst>
 </file>
@@ -2111,21 +2115,15 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2202,14 +2200,14 @@
     </font>
     <font>
       <b/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -2218,7 +2216,7 @@
     </font>
     <font>
       <b/>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2260,7 +2258,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
@@ -2301,6 +2299,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2317,13 +2322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599960029125214"/>
+        <fgColor theme="6" tint="0.59993285927915285"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599960029125214"/>
+        <fgColor theme="9" tint="0.59993285927915285"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2357,6 +2362,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2369,6 +2375,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2381,6 +2388,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2393,6 +2401,7 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2403,6 +2412,7 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2415,6 +2425,7 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2429,6 +2440,7 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2437,6 +2449,7 @@
         <color theme="0"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2451,6 +2464,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2463,6 +2477,7 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2477,6 +2492,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2489,6 +2505,7 @@
         <color indexed="22"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2497,6 +2514,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2507,6 +2525,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2517,6 +2536,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2529,6 +2549,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2543,6 +2564,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2557,6 +2579,7 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2571,6 +2594,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2583,6 +2607,7 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2595,6 +2620,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2603,6 +2629,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2613,6 +2640,7 @@
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2623,132 +2651,48 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+  <cellStyleXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2761,193 +2705,161 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2958,17 +2870,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="19" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2976,20 +2885,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2997,168 +2903,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="30" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="25" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="34">
+    <cellStyle name="a_Calc_Outputs" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Comma 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Comma 4" xfId="30" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Desc" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Normal 10 2" xfId="20"/>
-    <cellStyle name="Normale_Foglio2" xfId="21"/>
-    <cellStyle name="Normal 2" xfId="22"/>
-    <cellStyle name="Percent 2" xfId="23"/>
-    <cellStyle name="Normal 50" xfId="24"/>
-    <cellStyle name="Normal 50 7" xfId="25"/>
-    <cellStyle name="Normal 3 28" xfId="26"/>
-    <cellStyle name="Normal 3 3" xfId="27"/>
-    <cellStyle name="Comma 2" xfId="28"/>
-    <cellStyle name="Normal 4 38" xfId="29"/>
-    <cellStyle name="Normal 2 10" xfId="30"/>
-    <cellStyle name="a_Calc_Outputs" xfId="31"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8"/>
-    <cellStyle name="Comma 3" xfId="33"/>
-    <cellStyle name="Normal 3 2" xfId="34"/>
-    <cellStyle name="Percent 2 2" xfId="35"/>
-    <cellStyle name="Normal 3" xfId="36"/>
-    <cellStyle name="Normal 4" xfId="37"/>
-    <cellStyle name="Normal 13" xfId="38"/>
-    <cellStyle name="Normal 2 2" xfId="39"/>
-    <cellStyle name="Normal 4 2" xfId="40"/>
-    <cellStyle name="Normal 10 3" xfId="41"/>
-    <cellStyle name="Hyperlink 2" xfId="42"/>
-    <cellStyle name="Normal 2 2 2" xfId="43"/>
-    <cellStyle name="Normal 2 3" xfId="44"/>
-    <cellStyle name="Normal 3 4" xfId="45"/>
-    <cellStyle name="Comma 2 2" xfId="46"/>
-    <cellStyle name="Percent 3" xfId="47"/>
-    <cellStyle name="Normal 2 4" xfId="48"/>
-    <cellStyle name="Comma 4" xfId="49"/>
-    <cellStyle name="Desc" xfId="50"/>
-    <cellStyle name="Normal 2 45" xfId="51"/>
-    <cellStyle name="Normal 50 2" xfId="52"/>
+    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 10 3" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 13" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 10" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="25" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 2 4" xfId="29" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 2 45" xfId="32" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 3 28" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 4 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 4 38" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 50" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 50 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 50 7" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normale_Foglio2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Percent 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3171,7 +2996,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3190,7 +3015,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7bb0979c-9057-4919-b850-4c370c09333b}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB0979C-9057-4919-B850-4C370C09333B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3024,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect l="4609" t="8924" r="7737" b="12916"/>
         <a:stretch>
           <a:fillRect/>
@@ -3210,7 +3035,9 @@
           <a:off x="1057275" y="1619250"/>
           <a:ext cx="1428750" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3233,7 +3060,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7c4301ca-8dac-4417-a97a-698f758cf825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4301CA-8DAC-4417-A97A-698F758CF825}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3069,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3252,7 +3079,9 @@
           <a:off x="2990850" y="1619250"/>
           <a:ext cx="1247775" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3275,7 +3104,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746184ed-e5ec-41bb-989c-625cca95363d}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746184ED-E5EC-41BB-989C-625CCA95363D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +3113,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3294,7 +3123,9 @@
           <a:off x="4772025" y="1619250"/>
           <a:ext cx="2019300" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3317,7 +3148,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{c21c3391-41b7-4fc5-93c8-83f5b121049f}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21C3391-41B7-4FC5-93C8-83F5B121049F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3157,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect l="1359" t="6555" r="4002" b="6327"/>
         <a:stretch>
           <a:fillRect/>
@@ -3337,7 +3168,9 @@
           <a:off x="1143000" y="695325"/>
           <a:ext cx="1400175" cy="581025"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3360,7 +3193,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ab336379-200f-4243-b626-509f5e20086d}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB336379-200F-4243-B626-509F5E20086D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3202,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3379,7 +3212,9 @@
           <a:off x="5153025" y="885825"/>
           <a:ext cx="1819275" cy="285750"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3402,16 +3237,16 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{c4c3bddb-f453-44a8-abe9-ab628aa7f112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C3BDDB-F453-44A8-ABE9-AB628AA7F112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3421,7 +3256,9 @@
           <a:off x="2705100" y="504825"/>
           <a:ext cx="2105025" cy="1028700"/>
         </a:xfrm>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -3701,24 +3538,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B86CC-771F-4B39-BBB3-D245A22B5D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976B86CC-771F-4B39-BBB3-D245A22B5D71}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="28.2857142857143" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.7142857142857" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="13"/>
+    <col min="1" max="4" width="28.265625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.15" thickBot="1">
+    <row r="1" spans="1:6" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>657</v>
       </c>
@@ -3727,42 +3564,42 @@
       <c r="D1" s="5"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="23.25">
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A2" s="61"/>
       <c r="B2" s="15"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A3" s="61"/>
       <c r="B3" s="15"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25">
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A4" s="61"/>
       <c r="B4" s="15"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="23.25">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A5" s="61"/>
       <c r="B5" s="15"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="23.25">
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A6" s="61"/>
       <c r="B6" s="15"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="23.25">
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A7" s="61"/>
       <c r="B7" s="15"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" ht="23.25">
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A8" s="61"/>
       <c r="B8" s="15"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>92</v>
       </c>
@@ -3772,7 +3609,7 @@
       <c r="C9" s="17"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>93</v>
       </c>
@@ -3781,7 +3618,7 @@
       </c>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="75" t="s">
         <v>658</v>
       </c>
@@ -3790,13 +3627,13 @@
       </c>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="77"/>
       <c r="B12" s="76" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>94</v>
       </c>
@@ -3804,7 +3641,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="0" customFormat="1" ht="14.25">
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="78" t="s">
         <v>661</v>
       </c>
@@ -3814,7 +3651,7 @@
       <c r="C14" s="76"/>
       <c r="D14" s="80"/>
     </row>
-    <row r="15" spans="1:4" s="0" customFormat="1" ht="14.25">
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="78" t="s">
         <v>662</v>
       </c>
@@ -3824,7 +3661,7 @@
       <c r="C15" s="76"/>
       <c r="D15" s="80"/>
     </row>
-    <row r="16" spans="1:4" s="0" customFormat="1" ht="14.25">
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="78" t="s">
         <v>664</v>
       </c>
@@ -3834,7 +3671,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" s="0" customFormat="1" ht="14.25">
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="80"/>
       <c r="B17" s="82" t="s">
         <v>666</v>
@@ -3842,17 +3679,17 @@
       <c r="C17" s="83"/>
       <c r="D17" s="83"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>96</v>
       </c>
@@ -3863,7 +3700,7 @@
       <c r="D20" s="23"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="62" t="s">
         <v>229</v>
       </c>
@@ -3873,7 +3710,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="62" t="s">
         <v>230</v>
       </c>
@@ -3884,7 +3721,7 @@
       <c r="D22" s="1"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="62" t="s">
         <v>231</v>
       </c>
@@ -3895,7 +3732,7 @@
       <c r="D23" s="1"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="62" t="s">
         <v>232</v>
       </c>
@@ -3906,7 +3743,7 @@
       <c r="D24" s="1"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="62" t="s">
         <v>233</v>
       </c>
@@ -3917,7 +3754,7 @@
       <c r="D25" s="1"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="62" t="s">
         <v>234</v>
       </c>
@@ -3928,7 +3765,7 @@
       <c r="D26" s="1"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="62" t="s">
         <v>235</v>
       </c>
@@ -3939,15 +3776,15 @@
       <c r="D27" s="1"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:1" ht="14.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="21"/>
     </row>
-    <row r="29" spans="1:1" ht="21">
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A30" s="59" t="s">
         <v>257</v>
       </c>
@@ -3955,7 +3792,7 @@
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
     </row>
-    <row r="31" spans="1:4" ht="14.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="60"/>
       <c r="B31" s="56" t="s">
         <v>258</v>
@@ -3977,48 +3814,48 @@
     <mergeCell ref="B23:D23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
-    <hyperlink ref="B15" r:id="rId2" display="https://github.com/MaREI-EPMG/TIMES-GEO"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="0.599960029125214"/>
+    <tabColor theme="9" tint="0.59993285927915285"/>
   </sheetPr>
   <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="33.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.2857142857143" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5714285714286" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="33.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="23.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -4030,7 +3867,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -4056,7 +3893,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="14.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="29" t="s">
         <v>72</v>
       </c>
@@ -4070,130 +3907,130 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="14.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:2" ht="14.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="12"/>
     </row>
-    <row r="8" spans="2:2" ht="14.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="2:2" ht="14.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="2:2" ht="14.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="2:2" ht="14.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="2:2" ht="14.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="2:2" ht="14.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="2:2" ht="14.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="2:2" ht="14.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="2:2" ht="14.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="2:2" ht="14.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" ht="14.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="2:2" ht="14.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="2:2" ht="14.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="2:2" ht="14.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="2:2" ht="14.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="2:2" ht="14.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="2:2" ht="14.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="2:2" ht="14.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="2:2" ht="14.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="2:2" ht="14.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="2:2" ht="14.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="12"/>
     </row>
-    <row r="31" spans="2:2" ht="14.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="2:2" ht="14.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="2:2" ht="14.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="2:2" ht="14.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="2:2" ht="14.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:2" ht="14.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="2:2" ht="14.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="2:2" ht="14.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="2:2" ht="14.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="2:2" ht="14.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="2:2" ht="14.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="2:2" ht="14.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="2:2" ht="14.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="2:2" ht="14.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="2:2" ht="14.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="2:2" ht="14.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="2:2" ht="14.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="2:2" ht="14.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:2" ht="14.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="12"/>
     </row>
   </sheetData>
@@ -4202,38 +4039,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BB74D-895B-4B44-B605-634322E96F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08BB74D-895B-4B44-B605-634322E96F6F}">
   <sheetPr>
-    <tabColor theme="9" tint="0.599960029125214"/>
+    <tabColor theme="9" tint="0.59993285927915285"/>
   </sheetPr>
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5714285714286" style="13" customWidth="1"/>
-    <col min="3" max="3" width="36.5714285714286" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" style="13" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8571428571429" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5714285714286" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5714285714286" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="13"/>
+    <col min="2" max="2" width="17.59765625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="23.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4082,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:10" ht="14.65" thickBot="1">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -4270,9 +4107,8 @@
       <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" ht="14.25">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
@@ -4286,7 +4122,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
         <v>202</v>
       </c>
@@ -4294,13 +4130,13 @@
         <v>264</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>132</v>
+        <v>671</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="14.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>260</v>
       </c>
@@ -4311,7 +4147,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="14.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
         <v>121</v>
       </c>
@@ -4322,7 +4158,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="14.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
         <v>559</v>
       </c>
@@ -4339,7 +4175,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="14.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
         <v>566</v>
       </c>
@@ -4356,7 +4192,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="14.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
         <v>569</v>
       </c>
@@ -4373,7 +4209,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="14.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
         <v>571</v>
       </c>
@@ -4390,7 +4226,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="14.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="52" t="s">
         <v>207</v>
       </c>
@@ -4406,7 +4242,7 @@
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="39" t="s">
         <v>218</v>
       </c>
@@ -4422,7 +4258,7 @@
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="69" t="s">
         <v>265</v>
       </c>
@@ -4440,7 +4276,7 @@
       <c r="H15" s="69"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="2:9" ht="14.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="30" t="s">
         <v>561</v>
       </c>
@@ -4460,43 +4296,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F47B-2C2A-48ED-B8E9-A3DABC0C44F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F47B-2C2A-48ED-B8E9-A3DABC0C44F6}">
   <sheetPr>
-    <tabColor theme="9" tint="0.599960029125214"/>
+    <tabColor theme="9" tint="0.59993285927915285"/>
   </sheetPr>
   <dimension ref="B1:I128"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5714285714286" style="19" customWidth="1"/>
-    <col min="3" max="3" width="33.1428571428571" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.2857142857143" style="19" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" style="19" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5714285714286" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5714285714286" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5714285714286" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="19"/>
+    <col min="2" max="2" width="17.59765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="33.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.265625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="23.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>491</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -4508,7 +4344,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -4534,7 +4370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="14.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="32" t="s">
         <v>30</v>
       </c>
@@ -4550,7 +4386,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="2:9" ht="14.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="34" t="s">
         <v>124</v>
       </c>
@@ -4570,7 +4406,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="14.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="34" t="s">
         <v>125</v>
       </c>
@@ -4590,7 +4426,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="14.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="34" t="s">
         <v>271</v>
       </c>
@@ -4610,7 +4446,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="14.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="35" t="s">
         <v>126</v>
       </c>
@@ -4632,7 +4468,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="14.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
@@ -4652,7 +4488,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="14.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="34" t="s">
         <v>613</v>
       </c>
@@ -4672,7 +4508,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="14.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="34" t="s">
         <v>20</v>
       </c>
@@ -4692,7 +4528,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="14.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="34" t="s">
         <v>614</v>
       </c>
@@ -4712,7 +4548,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="14.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
@@ -4729,7 +4565,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="14.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="34" t="s">
         <v>26</v>
       </c>
@@ -4746,7 +4582,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="14.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="34" t="s">
         <v>154</v>
       </c>
@@ -4763,7 +4599,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="37" t="s">
         <v>157</v>
       </c>
@@ -4783,7 +4619,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="37" t="s">
         <v>160</v>
       </c>
@@ -4803,7 +4639,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="14.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="38" t="s">
         <v>155</v>
       </c>
@@ -4820,7 +4656,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="14.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="38" t="s">
         <v>164</v>
       </c>
@@ -4840,7 +4676,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="38" t="s">
         <v>165</v>
       </c>
@@ -4860,7 +4696,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="14.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="37" t="s">
         <v>463</v>
       </c>
@@ -4877,7 +4713,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="14.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="37" t="s">
         <v>464</v>
       </c>
@@ -4897,7 +4733,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="37" t="s">
         <v>465</v>
       </c>
@@ -4917,7 +4753,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="14.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="37" t="s">
         <v>466</v>
       </c>
@@ -4934,7 +4770,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="14.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" s="34" t="s">
         <v>24</v>
       </c>
@@ -4954,7 +4790,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="14.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="34" t="s">
         <v>617</v>
       </c>
@@ -4974,7 +4810,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="34" t="s">
         <v>470</v>
       </c>
@@ -4994,7 +4830,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="14.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="34" t="s">
         <v>619</v>
       </c>
@@ -5014,7 +4850,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="14.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="34" t="s">
         <v>473</v>
       </c>
@@ -5031,7 +4867,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="14.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="34" t="s">
         <v>469</v>
       </c>
@@ -5048,7 +4884,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="14.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="35" t="s">
         <v>33</v>
       </c>
@@ -5068,7 +4904,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="39" t="s">
         <v>209</v>
       </c>
@@ -5092,7 +4928,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="14.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" s="34" t="s">
         <v>514</v>
       </c>
@@ -5109,7 +4945,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="14.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" s="34" t="s">
         <v>515</v>
       </c>
@@ -5126,7 +4962,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36" s="34" t="s">
         <v>516</v>
       </c>
@@ -5143,7 +4979,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="14.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" s="34" t="s">
         <v>517</v>
       </c>
@@ -5160,7 +4996,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="14.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38" s="34" t="s">
         <v>519</v>
       </c>
@@ -5177,7 +5013,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="34" t="s">
         <v>520</v>
       </c>
@@ -5194,7 +5030,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="14.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" s="34" t="s">
         <v>521</v>
       </c>
@@ -5211,7 +5047,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="14.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" s="34" t="s">
         <v>522</v>
       </c>
@@ -5228,7 +5064,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="14.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" s="41" t="s">
         <v>523</v>
       </c>
@@ -5245,7 +5081,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="14.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" s="41" t="s">
         <v>524</v>
       </c>
@@ -5262,7 +5098,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="14.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" s="35" t="s">
         <v>518</v>
       </c>
@@ -5282,7 +5118,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="14.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B45" s="19" t="s">
         <v>668</v>
       </c>
@@ -5296,12 +5132,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="23.25">
+    <row r="47" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="14.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
         <v>0</v>
       </c>
@@ -5313,7 +5149,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" ht="14.65" thickBot="1">
+    <row r="49" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
@@ -5339,7 +5175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="14.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B50" s="34" t="s">
         <v>280</v>
       </c>
@@ -5359,7 +5195,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="14.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B51" s="34" t="s">
         <v>281</v>
       </c>
@@ -5379,7 +5215,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="14.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B52" s="34" t="s">
         <v>282</v>
       </c>
@@ -5399,7 +5235,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="14.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53" s="35" t="s">
         <v>283</v>
       </c>
@@ -5421,7 +5257,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="14.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B54" s="34" t="s">
         <v>289</v>
       </c>
@@ -5441,7 +5277,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="14.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B55" s="34" t="s">
         <v>623</v>
       </c>
@@ -5461,7 +5297,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="14.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B56" s="34" t="s">
         <v>290</v>
       </c>
@@ -5481,7 +5317,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="14.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B57" s="34" t="s">
         <v>625</v>
       </c>
@@ -5501,7 +5337,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="14.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B58" s="34" t="s">
         <v>291</v>
       </c>
@@ -5521,7 +5357,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="14.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B59" s="34" t="s">
         <v>292</v>
       </c>
@@ -5541,7 +5377,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="14.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B60" s="34" t="s">
         <v>293</v>
       </c>
@@ -5561,7 +5397,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="14.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B61" s="37" t="s">
         <v>294</v>
       </c>
@@ -5581,7 +5417,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="14.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B62" s="37" t="s">
         <v>295</v>
       </c>
@@ -5601,7 +5437,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="14.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B63" s="38" t="s">
         <v>296</v>
       </c>
@@ -5621,7 +5457,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="14.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B64" s="38" t="s">
         <v>297</v>
       </c>
@@ -5641,7 +5477,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="14.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" s="38" t="s">
         <v>298</v>
       </c>
@@ -5661,7 +5497,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="14.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66" s="37" t="s">
         <v>656</v>
       </c>
@@ -5681,7 +5517,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="14.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B67" s="37" t="s">
         <v>654</v>
       </c>
@@ -5701,7 +5537,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="14.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68" s="37" t="s">
         <v>655</v>
       </c>
@@ -5721,7 +5557,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="14.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B69" s="37" t="s">
         <v>478</v>
       </c>
@@ -5741,7 +5577,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="14.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B70" s="34" t="s">
         <v>299</v>
       </c>
@@ -5761,7 +5597,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="14.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71" s="34" t="s">
         <v>627</v>
       </c>
@@ -5781,7 +5617,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="14.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B72" s="34" t="s">
         <v>480</v>
       </c>
@@ -5801,7 +5637,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="14.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B73" s="34" t="s">
         <v>628</v>
       </c>
@@ -5821,7 +5657,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="14.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74" s="34" t="s">
         <v>481</v>
       </c>
@@ -5841,7 +5677,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="14.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B75" s="34" t="s">
         <v>477</v>
       </c>
@@ -5861,7 +5697,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="14.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B76" s="35" t="s">
         <v>300</v>
       </c>
@@ -5883,7 +5719,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="14.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77" s="39" t="s">
         <v>301</v>
       </c>
@@ -5907,7 +5743,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="14.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B78" s="34" t="s">
         <v>492</v>
       </c>
@@ -5927,7 +5763,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="14.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B79" s="34" t="s">
         <v>493</v>
       </c>
@@ -5947,7 +5783,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="14.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B80" s="34" t="s">
         <v>494</v>
       </c>
@@ -5967,7 +5803,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="14.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B81" s="34" t="s">
         <v>495</v>
       </c>
@@ -5987,7 +5823,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="14.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B82" s="34" t="s">
         <v>497</v>
       </c>
@@ -6007,7 +5843,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="14.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B83" s="34" t="s">
         <v>498</v>
       </c>
@@ -6027,7 +5863,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="14.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B84" s="34" t="s">
         <v>499</v>
       </c>
@@ -6047,7 +5883,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="14.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B85" s="34" t="s">
         <v>500</v>
       </c>
@@ -6067,7 +5903,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="14.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B86" s="41" t="s">
         <v>501</v>
       </c>
@@ -6087,7 +5923,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="14.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B87" s="41" t="s">
         <v>502</v>
       </c>
@@ -6107,7 +5943,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="14.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B88" s="35" t="s">
         <v>496</v>
       </c>
@@ -6129,15 +5965,15 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="14.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B89" s="41"/>
     </row>
-    <row r="91" spans="2:2" ht="23.25">
+    <row r="91" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B91" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="14.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B92" s="9" t="s">
         <v>0</v>
       </c>
@@ -6149,7 +5985,7 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
     </row>
-    <row r="93" spans="2:9" ht="14.65" thickBot="1">
+    <row r="93" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B93" s="10" t="s">
         <v>1</v>
       </c>
@@ -6175,7 +6011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="14.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B94" s="34" t="s">
         <v>332</v>
       </c>
@@ -6195,7 +6031,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="14.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B95" s="34" t="s">
         <v>333</v>
       </c>
@@ -6215,7 +6051,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="14.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B96" s="34" t="s">
         <v>334</v>
       </c>
@@ -6235,7 +6071,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="14.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B97" s="35" t="s">
         <v>335</v>
       </c>
@@ -6257,7 +6093,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="14.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B98" s="34" t="s">
         <v>336</v>
       </c>
@@ -6277,7 +6113,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="14.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B99" s="34" t="s">
         <v>337</v>
       </c>
@@ -6297,7 +6133,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="14.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B100" s="34" t="s">
         <v>338</v>
       </c>
@@ -6317,7 +6153,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="14.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B101" s="34" t="s">
         <v>339</v>
       </c>
@@ -6337,7 +6173,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="14.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B102" s="34" t="s">
         <v>340</v>
       </c>
@@ -6357,7 +6193,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="14.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B103" s="37" t="s">
         <v>341</v>
       </c>
@@ -6377,7 +6213,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="14.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B104" s="37" t="s">
         <v>342</v>
       </c>
@@ -6397,7 +6233,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="14.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B105" s="38" t="s">
         <v>343</v>
       </c>
@@ -6417,7 +6253,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="14.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B106" s="38" t="s">
         <v>344</v>
       </c>
@@ -6437,7 +6273,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="14.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B107" s="38" t="s">
         <v>345</v>
       </c>
@@ -6457,7 +6293,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="14.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B108" s="37" t="s">
         <v>651</v>
       </c>
@@ -6477,7 +6313,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="14.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B109" s="37" t="s">
         <v>652</v>
       </c>
@@ -6497,7 +6333,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="14.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B110" s="37" t="s">
         <v>653</v>
       </c>
@@ -6517,7 +6353,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="14.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B111" s="37" t="s">
         <v>485</v>
       </c>
@@ -6537,7 +6373,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="14.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B112" s="34" t="s">
         <v>346</v>
       </c>
@@ -6557,7 +6393,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="14.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B113" s="34" t="s">
         <v>487</v>
       </c>
@@ -6577,7 +6413,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="14.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B114" s="34" t="s">
         <v>488</v>
       </c>
@@ -6597,7 +6433,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="14.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B115" s="34" t="s">
         <v>479</v>
       </c>
@@ -6617,7 +6453,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="14.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B116" s="35" t="s">
         <v>347</v>
       </c>
@@ -6639,7 +6475,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="14.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B117" s="39" t="s">
         <v>348</v>
       </c>
@@ -6663,7 +6499,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="14.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B118" s="34" t="s">
         <v>526</v>
       </c>
@@ -6683,7 +6519,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="14.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B119" s="34" t="s">
         <v>527</v>
       </c>
@@ -6703,7 +6539,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="14.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B120" s="34" t="s">
         <v>528</v>
       </c>
@@ -6723,7 +6559,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="14.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B121" s="34" t="s">
         <v>529</v>
       </c>
@@ -6743,7 +6579,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="14.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B122" s="34" t="s">
         <v>530</v>
       </c>
@@ -6763,7 +6599,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="14.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B123" s="34" t="s">
         <v>531</v>
       </c>
@@ -6783,7 +6619,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="14.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B124" s="34" t="s">
         <v>532</v>
       </c>
@@ -6803,7 +6639,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="14.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B125" s="34" t="s">
         <v>533</v>
       </c>
@@ -6823,7 +6659,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="14.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B126" s="41" t="s">
         <v>534</v>
       </c>
@@ -6843,7 +6679,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="14.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B127" s="41" t="s">
         <v>535</v>
       </c>
@@ -6863,7 +6699,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="14.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B128" s="35" t="s">
         <v>536</v>
       </c>
@@ -6887,35 +6723,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DD5C6-DFE1-4B3C-9400-DAD545AE00E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7DD5C6-DFE1-4B3C-9400-DAD545AE00E2}">
   <sheetPr>
-    <tabColor theme="9" tint="0.599960029125214"/>
+    <tabColor theme="9" tint="0.59993285927915285"/>
   </sheetPr>
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5714285714286" style="19" customWidth="1"/>
-    <col min="3" max="3" width="59.1428571428571" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.8571428571429" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.8571428571429" style="19" customWidth="1"/>
-    <col min="9" max="9" width="79.5714285714286" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="19"/>
+    <col min="2" max="2" width="17.59765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="59.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.86328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.86328125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="23.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>78</v>
       </c>
@@ -6923,7 +6759,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -6935,7 +6771,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -6961,7 +6797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="14.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="37" t="s">
         <v>47</v>
       </c>
@@ -6972,7 +6808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="14.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="42" t="s">
         <v>76</v>
       </c>
@@ -6988,7 +6824,7 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="2:9" ht="14.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="44" t="s">
         <v>46</v>
       </c>
@@ -7008,7 +6844,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="14.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="49" t="s">
         <v>82</v>
       </c>
@@ -7028,7 +6864,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="14.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="46" t="s">
         <v>386</v>
       </c>
@@ -7046,7 +6882,7 @@
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
     </row>
-    <row r="10" spans="2:9" ht="14.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="46" t="s">
         <v>389</v>
       </c>
@@ -7064,7 +6900,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="2:9" ht="14.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="46" t="s">
         <v>83</v>
       </c>
@@ -7082,7 +6918,7 @@
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="2:9" ht="14.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="46" t="s">
         <v>84</v>
       </c>
@@ -7100,7 +6936,7 @@
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="2:9" ht="14.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="46" t="s">
         <v>85</v>
       </c>
@@ -7118,7 +6954,7 @@
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="46" t="s">
         <v>395</v>
       </c>
@@ -7136,7 +6972,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="2:7" ht="14.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="46" t="s">
         <v>401</v>
       </c>
@@ -7152,7 +6988,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="14.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="46" t="s">
         <v>403</v>
       </c>
@@ -7168,7 +7004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="46" t="s">
         <v>86</v>
       </c>
@@ -7184,7 +7020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="14.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="46" t="s">
         <v>87</v>
       </c>
@@ -7200,7 +7036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="14.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="46" t="s">
         <v>88</v>
       </c>
@@ -7216,7 +7052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="46" t="s">
         <v>408</v>
       </c>
@@ -7232,7 +7068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="47" t="s">
         <v>410</v>
       </c>
@@ -7250,7 +7086,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="2:7" s="13" customFormat="1" ht="14.25">
+    <row r="22" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="46" t="s">
         <v>413</v>
       </c>
@@ -7264,7 +7100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="13" customFormat="1" ht="14.25">
+    <row r="23" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" s="46" t="s">
         <v>415</v>
       </c>
@@ -7278,7 +7114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="13" customFormat="1" ht="14.25">
+    <row r="24" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="46" t="s">
         <v>416</v>
       </c>
@@ -7292,7 +7128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:7" s="13" customFormat="1" ht="14.25">
+    <row r="25" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="46" t="s">
         <v>417</v>
       </c>
@@ -7306,7 +7142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="13" customFormat="1" ht="14.25">
+    <row r="26" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="46" t="s">
         <v>418</v>
       </c>
@@ -7320,7 +7156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="13" customFormat="1" ht="14.25">
+    <row r="27" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="64" t="s">
         <v>430</v>
       </c>
@@ -7334,7 +7170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="46" t="s">
         <v>431</v>
       </c>
@@ -7352,7 +7188,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" ht="14.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="46" t="s">
         <v>433</v>
       </c>
@@ -7370,7 +7206,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:9" ht="14.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="46" t="s">
         <v>435</v>
       </c>
@@ -7388,7 +7224,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:9" ht="14.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="46" t="s">
         <v>437</v>
       </c>
@@ -7406,7 +7242,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:9" ht="14.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="46" t="s">
         <v>439</v>
       </c>
@@ -7424,7 +7260,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:9" ht="14.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="51" t="s">
         <v>441</v>
       </c>
@@ -7444,43 +7280,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A32A1D-C531-4190-897D-64A6C5A2D3CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A32A1D-C531-4190-897D-64A6C5A2D3CC}">
   <sheetPr>
-    <tabColor theme="9" tint="0.599960029125214"/>
+    <tabColor theme="9" tint="0.59993285927915285"/>
   </sheetPr>
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A2">
-      <selection pane="topLeft" activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5714285714286" style="13" customWidth="1"/>
-    <col min="3" max="3" width="42.8571428571429" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.71428571428571" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8571428571429" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.2857142857143" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5714285714286" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="13"/>
+    <col min="2" max="2" width="17.59765625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="42.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="23.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -7492,7 +7328,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -7518,7 +7354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="14.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
         <v>60</v>
       </c>
@@ -7534,7 +7370,7 @@
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
     </row>
-    <row r="6" spans="2:9" ht="14.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="55" t="s">
         <v>211</v>
       </c>
@@ -7552,7 +7388,7 @@
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
     </row>
-    <row r="7" spans="2:9" ht="14.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="26" t="s">
         <v>54</v>
       </c>
@@ -7572,7 +7408,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="14.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="27" t="s">
         <v>56</v>
       </c>
@@ -7591,7 +7427,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="14.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="27" t="s">
         <v>451</v>
       </c>
@@ -7609,7 +7445,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="14.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>137</v>
       </c>
@@ -7627,7 +7463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="14.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="26" t="s">
         <v>136</v>
       </c>
@@ -7647,7 +7483,7 @@
       </c>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="2:8" ht="14.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
         <v>224</v>
       </c>
@@ -7665,7 +7501,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="14.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="26" t="s">
         <v>227</v>
       </c>
@@ -7685,7 +7521,7 @@
       </c>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="2:8" ht="14.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="27" t="s">
         <v>135</v>
       </c>
@@ -7703,7 +7539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>107</v>
       </c>
@@ -7721,7 +7557,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="14.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="11" t="s">
         <v>109</v>
       </c>
@@ -7739,7 +7575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="14.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="11" t="s">
         <v>110</v>
       </c>
@@ -7757,7 +7593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="14.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
         <v>456</v>
       </c>
@@ -7775,7 +7611,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="14.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="11" t="s">
         <v>111</v>
       </c>
@@ -7793,7 +7629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="14.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="11" t="s">
         <v>118</v>
       </c>
@@ -7811,7 +7647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="14.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="11" t="s">
         <v>601</v>
       </c>
@@ -7829,7 +7665,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="14.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
         <v>602</v>
       </c>
@@ -7847,7 +7683,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="14.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="29" t="s">
         <v>119</v>
       </c>
@@ -7865,7 +7701,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="14.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="29" t="s">
         <v>593</v>
       </c>
@@ -7883,7 +7719,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="14.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="29" t="s">
         <v>594</v>
       </c>
@@ -7901,7 +7737,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="14.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
         <v>120</v>
       </c>
@@ -7919,7 +7755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="14.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
         <v>597</v>
       </c>
@@ -7937,7 +7773,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="14.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="31" t="s">
         <v>598</v>
       </c>
@@ -7957,42 +7793,42 @@
       </c>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="2:4" ht="14.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="12"/>
       <c r="D29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCA57F-2C3B-4321-9369-CFB854F21DAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCA57F-2C3B-4321-9369-CFB854F21DAA}">
   <sheetPr>
-    <tabColor theme="9" tint="0.599960029125214"/>
+    <tabColor theme="9" tint="0.59993285927915285"/>
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B9" sqref="B9:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5714285714286" style="19" customWidth="1"/>
-    <col min="3" max="3" width="56.1428571428571" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" style="19" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" style="19" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8571428571429" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5714285714286" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.5714285714286" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="19"/>
+    <col min="2" max="2" width="17.59765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="56.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="23.25">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>63</v>
       </c>
@@ -8000,7 +7836,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -8012,7 +7848,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="14.65" thickBot="1">
+    <row r="4" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -8038,7 +7874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="14.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="43" t="s">
         <v>64</v>
       </c>
@@ -8049,7 +7885,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="41" t="s">
         <v>67</v>
       </c>
@@ -8060,7 +7896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="14.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="19" t="s">
         <v>198</v>
       </c>
@@ -8079,7 +7915,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="14.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="72" t="s">
         <v>217</v>
       </c>
@@ -8101,7 +7937,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="34" t="s">
         <v>140</v>
       </c>
@@ -8115,7 +7951,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="34" t="s">
         <v>142</v>
       </c>
@@ -8129,7 +7965,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="34" t="s">
         <v>145</v>
       </c>
@@ -8143,7 +7979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="14.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="34" t="s">
         <v>147</v>
       </c>
@@ -8157,7 +7993,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="14.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="34" t="s">
         <v>634</v>
       </c>
@@ -8171,7 +8007,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="14.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="34" t="s">
         <v>637</v>
       </c>
@@ -8185,7 +8021,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="14.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="35" t="s">
         <v>150</v>
       </c>
@@ -8205,34 +8041,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E71761-7271-4EB0-B27C-166FB2B8C707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E71761-7271-4EB0-B27C-166FB2B8C707}">
   <sheetPr>
-    <tabColor theme="9" tint="0.599960029125214"/>
+    <tabColor theme="9" tint="0.59993285927915285"/>
   </sheetPr>
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13428571428571" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.71428571428571" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.4285714285714" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25.2857142857143" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.7142857142857" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.5714285714286" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="13"/>
+    <col min="5" max="5" width="85.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="23.25">
+    <row r="1" spans="2:7" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>100</v>
       </c>
@@ -8242,7 +8078,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="3" spans="2:7" ht="14.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
@@ -8252,7 +8088,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="2:8" ht="14.65" thickBot="1">
+    <row r="4" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -8271,9 +8107,8 @@
       <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" ht="14.25">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
         <v>42</v>
       </c>
@@ -8290,7 +8125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
         <v>173</v>
       </c>
@@ -8304,7 +8139,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="14.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>175</v>
       </c>
@@ -8318,7 +8153,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="14.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
         <v>643</v>
       </c>
@@ -8332,7 +8167,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
         <v>177</v>
       </c>
@@ -8346,7 +8181,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="14.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
         <v>196</v>
       </c>
@@ -8360,7 +8195,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
         <v>179</v>
       </c>
@@ -8374,7 +8209,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="14.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
         <v>181</v>
       </c>
@@ -8388,7 +8223,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="14.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
         <v>185</v>
       </c>
@@ -8402,7 +8237,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="14.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="13" t="s">
         <v>186</v>
       </c>
@@ -8416,7 +8251,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="14.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
         <v>187</v>
       </c>
@@ -8430,7 +8265,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="14.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="13" t="s">
         <v>188</v>
       </c>
@@ -8444,7 +8279,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="14.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
         <v>183</v>
       </c>
@@ -8458,7 +8293,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="14.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="13" t="s">
         <v>580</v>
       </c>
@@ -8471,9 +8306,8 @@
       <c r="E18" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="13" t="s">
         <v>203</v>
       </c>
@@ -8487,7 +8321,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="14.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="13" t="s">
         <v>583</v>
       </c>
@@ -8501,7 +8335,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="14.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="13" t="s">
         <v>586</v>
       </c>
@@ -8515,7 +8349,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="30" t="s">
         <v>588</v>
       </c>
@@ -8531,7 +8365,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="2:5" ht="14.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="13" t="s">
         <v>244</v>
       </c>
@@ -8545,7 +8379,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="14.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="13" t="s">
         <v>243</v>
       </c>
@@ -8559,7 +8393,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="14.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="13" t="s">
         <v>245</v>
       </c>
@@ -8573,7 +8407,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="14.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="30" t="s">
         <v>246</v>
       </c>
